--- a/output/5Y_P4_KFSDIV.xlsx
+++ b/output/5Y_P4_KFSDIV.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="31">
   <si>
     <t>NAV</t>
   </si>
@@ -110,6 +110,9 @@
   </si>
   <si>
     <t>Dividend</t>
+  </si>
+  <si>
+    <t>Wealth/Cost</t>
   </si>
 </sst>
 </file>
@@ -1249,7 +1252,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>-46</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>8.9413</v>
@@ -1293,7 +1296,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>-45</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>8.9801</v>
@@ -1343,7 +1346,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>-44</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>8.6477</v>
@@ -1393,7 +1396,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>-43</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>9.568899999999999</v>
@@ -1443,7 +1446,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>-42</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>9.429399999999999</v>
@@ -1493,7 +1496,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>-41</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>9.603999999999999</v>
@@ -1543,7 +1546,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>-40</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>10.3595</v>
@@ -1593,7 +1596,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>-39</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>10.0875</v>
@@ -1643,7 +1646,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>-38</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>10.1692</v>
@@ -1693,7 +1696,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>-37</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>11.0872</v>
@@ -1743,7 +1746,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>-36</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>11.0976</v>
@@ -1793,7 +1796,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>-35</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>10.8505</v>
@@ -1843,7 +1846,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>-34</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>11.8576</v>
@@ -1893,7 +1896,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="2">
-        <v>-33</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>12.5699</v>
@@ -1943,7 +1946,7 @@
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="2">
-        <v>-32</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>13.5994</v>
@@ -1993,7 +1996,7 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="2">
-        <v>-31</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>14.6663</v>
@@ -2043,7 +2046,7 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="2">
-        <v>-30</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>14.701</v>
@@ -2093,7 +2096,7 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="2">
-        <v>-29</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>13.8109</v>
@@ -2143,7 +2146,7 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="2">
-        <v>-28</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>13.9322</v>
@@ -2193,7 +2196,7 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="2">
-        <v>-27</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>12.5846</v>
@@ -2243,7 +2246,7 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="2">
-        <v>-26</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>12.2867</v>
@@ -2293,7 +2296,7 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="2">
-        <v>-25</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>13.0645</v>
@@ -2343,7 +2346,7 @@
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="2">
-        <v>-24</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>13.8083</v>
@@ -2393,7 +2396,7 @@
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="2">
-        <v>-23</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>13.5636</v>
@@ -2443,7 +2446,7 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="2">
-        <v>-22</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>13.1788</v>
@@ -2493,7 +2496,7 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="2">
-        <v>-21</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>14.5668</v>
@@ -2543,7 +2546,7 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="2">
-        <v>-20</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>13.962</v>
@@ -2593,7 +2596,7 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="2">
-        <v>-19</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>12.2659</v>
@@ -2643,7 +2646,7 @@
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="2">
-        <v>-18</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>12.4103</v>
@@ -2693,7 +2696,7 @@
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="2">
-        <v>-17</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>12.3976</v>
@@ -2743,7 +2746,7 @@
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="2">
-        <v>-16</v>
+        <v>30</v>
       </c>
       <c r="B32" s="1">
         <v>12.9013</v>
@@ -2793,7 +2796,7 @@
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="2">
-        <v>-15</v>
+        <v>31</v>
       </c>
       <c r="B33" s="1">
         <v>13.3527</v>
@@ -2843,7 +2846,7 @@
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="2">
-        <v>-14</v>
+        <v>32</v>
       </c>
       <c r="B34" s="1">
         <v>13.8804</v>
@@ -2893,7 +2896,7 @@
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="2">
-        <v>-13</v>
+        <v>33</v>
       </c>
       <c r="B35" s="1">
         <v>14.6268</v>
@@ -2943,7 +2946,7 @@
     </row>
     <row r="36" spans="1:17">
       <c r="A36" s="2">
-        <v>-12</v>
+        <v>34</v>
       </c>
       <c r="B36" s="1">
         <v>15.3636</v>
@@ -2993,7 +2996,7 @@
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="2">
-        <v>-11</v>
+        <v>35</v>
       </c>
       <c r="B37" s="1">
         <v>13.8711</v>
@@ -3043,7 +3046,7 @@
     </row>
     <row r="38" spans="1:17">
       <c r="A38" s="2">
-        <v>-10</v>
+        <v>36</v>
       </c>
       <c r="B38" s="1">
         <v>14.1252</v>
@@ -3093,7 +3096,7 @@
     </row>
     <row r="39" spans="1:17">
       <c r="A39" s="2">
-        <v>-9</v>
+        <v>37</v>
       </c>
       <c r="B39" s="1">
         <v>14.1934</v>
@@ -3143,7 +3146,7 @@
     </row>
     <row r="40" spans="1:17">
       <c r="A40" s="2">
-        <v>-8</v>
+        <v>38</v>
       </c>
       <c r="B40" s="1">
         <v>14.1176</v>
@@ -3193,7 +3196,7 @@
     </row>
     <row r="41" spans="1:17">
       <c r="A41" s="2">
-        <v>-7</v>
+        <v>39</v>
       </c>
       <c r="B41" s="1">
         <v>15.3311</v>
@@ -3243,7 +3246,7 @@
     </row>
     <row r="42" spans="1:17">
       <c r="A42" s="2">
-        <v>-6</v>
+        <v>40</v>
       </c>
       <c r="B42" s="1">
         <v>15.3637</v>
@@ -3293,7 +3296,7 @@
     </row>
     <row r="43" spans="1:17">
       <c r="A43" s="2">
-        <v>-5</v>
+        <v>41</v>
       </c>
       <c r="B43" s="1">
         <v>14.6447</v>
@@ -3343,7 +3346,7 @@
     </row>
     <row r="44" spans="1:17">
       <c r="A44" s="2">
-        <v>-4</v>
+        <v>42</v>
       </c>
       <c r="B44" s="1">
         <v>15.486</v>
@@ -3393,7 +3396,7 @@
     </row>
     <row r="45" spans="1:17">
       <c r="A45" s="2">
-        <v>-3</v>
+        <v>43</v>
       </c>
       <c r="B45" s="1">
         <v>16.1958</v>
@@ -3443,7 +3446,7 @@
     </row>
     <row r="46" spans="1:17">
       <c r="A46" s="2">
-        <v>-2</v>
+        <v>44</v>
       </c>
       <c r="B46" s="1">
         <v>16.4264</v>
@@ -3493,7 +3496,7 @@
     </row>
     <row r="47" spans="1:17">
       <c r="A47" s="2">
-        <v>-1</v>
+        <v>45</v>
       </c>
       <c r="B47" s="1">
         <v>17.107</v>
@@ -3543,7 +3546,7 @@
     </row>
     <row r="48" spans="1:17">
       <c r="A48" s="2">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="B48" s="1">
         <v>16.8894</v>
@@ -3593,7 +3596,7 @@
     </row>
     <row r="49" spans="1:17">
       <c r="A49" s="2">
-        <v>1</v>
+        <v>47</v>
       </c>
       <c r="B49" s="1">
         <v>16.4004</v>
@@ -3643,7 +3646,7 @@
     </row>
     <row r="50" spans="1:17">
       <c r="A50" s="2">
-        <v>2</v>
+        <v>48</v>
       </c>
       <c r="B50" s="1">
         <v>15.3877</v>
@@ -3693,7 +3696,7 @@
     </row>
     <row r="51" spans="1:17">
       <c r="A51" s="2">
-        <v>3</v>
+        <v>49</v>
       </c>
       <c r="B51" s="1">
         <v>14.6367</v>
@@ -3743,7 +3746,7 @@
     </row>
     <row r="52" spans="1:17">
       <c r="A52" s="2">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="B52" s="1">
         <v>13.0061</v>
@@ -3793,7 +3796,7 @@
     </row>
     <row r="53" spans="1:17">
       <c r="A53" s="2">
-        <v>5</v>
+        <v>51</v>
       </c>
       <c r="B53" s="1">
         <v>13.835</v>
@@ -3843,7 +3846,7 @@
     </row>
     <row r="54" spans="1:17">
       <c r="A54" s="2">
-        <v>6</v>
+        <v>52</v>
       </c>
       <c r="B54" s="1">
         <v>14.4216</v>
@@ -3893,7 +3896,7 @@
     </row>
     <row r="55" spans="1:17">
       <c r="A55" s="2">
-        <v>7</v>
+        <v>53</v>
       </c>
       <c r="B55" s="1">
         <v>13.2404</v>
@@ -3943,7 +3946,7 @@
     </row>
     <row r="56" spans="1:17">
       <c r="A56" s="2">
-        <v>8</v>
+        <v>54</v>
       </c>
       <c r="B56" s="1">
         <v>12.382</v>
@@ -3993,7 +3996,7 @@
     </row>
     <row r="57" spans="1:17">
       <c r="A57" s="2">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="B57" s="1">
         <v>11.9583</v>
@@ -4043,7 +4046,7 @@
     </row>
     <row r="58" spans="1:17">
       <c r="A58" s="2">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="B58" s="1">
         <v>12.2036</v>
@@ -4093,7 +4096,7 @@
     </row>
     <row r="59" spans="1:17">
       <c r="A59" s="2">
-        <v>11</v>
+        <v>57</v>
       </c>
       <c r="B59" s="1">
         <v>12.9136</v>
@@ -4143,7 +4146,7 @@
     </row>
     <row r="60" spans="1:17">
       <c r="A60" s="2">
-        <v>12</v>
+        <v>58</v>
       </c>
       <c r="B60" s="1">
         <v>13.4338</v>
@@ -4193,7 +4196,7 @@
     </row>
     <row r="61" spans="1:17">
       <c r="A61" s="2">
-        <v>13</v>
+        <v>59</v>
       </c>
       <c r="B61" s="1">
         <v>12.9657</v>
@@ -4243,7 +4246,7 @@
     </row>
     <row r="62" spans="1:17">
       <c r="A62" s="2">
-        <v>14</v>
+        <v>60</v>
       </c>
       <c r="B62" s="1">
         <v>13.3568</v>
@@ -4378,7 +4381,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>-46</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>8.9413</v>
@@ -4425,7 +4428,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>-45</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>8.9801</v>
@@ -4478,7 +4481,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>-44</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>8.6477</v>
@@ -4531,7 +4534,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>-43</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>9.568899999999999</v>
@@ -4584,7 +4587,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>-42</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>9.429399999999999</v>
@@ -4637,7 +4640,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>-41</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>9.603999999999999</v>
@@ -4690,7 +4693,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>-40</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>10.3595</v>
@@ -4743,7 +4746,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>-39</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>10.0875</v>
@@ -4796,7 +4799,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>-38</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>10.1692</v>
@@ -4849,7 +4852,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>-37</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>11.0872</v>
@@ -4902,7 +4905,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>-36</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>11.0976</v>
@@ -4955,7 +4958,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>-35</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>10.8505</v>
@@ -5008,7 +5011,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>-34</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>11.8576</v>
@@ -5061,7 +5064,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="2">
-        <v>-33</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>12.5699</v>
@@ -5091,10 +5094,10 @@
         <v>168186.8978</v>
       </c>
       <c r="K15" s="1">
-        <v>107237.2013</v>
+        <v>107241.7694</v>
       </c>
       <c r="L15" s="1">
-        <v>9.761799999999999</v>
+        <v>9.7622</v>
       </c>
       <c r="M15" s="1">
         <v>0</v>
@@ -5114,7 +5117,7 @@
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="2">
-        <v>-32</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>13.5994</v>
@@ -5144,10 +5147,10 @@
         <v>189643.9014</v>
       </c>
       <c r="K16" s="1">
-        <v>109436.471</v>
+        <v>109441.0391</v>
       </c>
       <c r="L16" s="1">
-        <v>9.806100000000001</v>
+        <v>9.8065</v>
       </c>
       <c r="M16" s="1">
         <v>0.5</v>
@@ -5167,7 +5170,7 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="2">
-        <v>-31</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>14.6663</v>
@@ -5197,10 +5200,10 @@
         <v>216434.0757</v>
       </c>
       <c r="K17" s="1">
-        <v>107964.8092</v>
+        <v>107975.2525</v>
       </c>
       <c r="L17" s="1">
-        <v>9.768800000000001</v>
+        <v>9.7697</v>
       </c>
       <c r="M17" s="1">
         <v>0</v>
@@ -5220,7 +5223,7 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="2">
-        <v>-30</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>14.701</v>
@@ -5250,10 +5253,10 @@
         <v>226812.2953</v>
       </c>
       <c r="K18" s="1">
-        <v>106189.545</v>
+        <v>106207.0793</v>
       </c>
       <c r="L18" s="1">
-        <v>9.714399999999999</v>
+        <v>9.715999999999999</v>
       </c>
       <c r="M18" s="1">
         <v>0</v>
@@ -5273,7 +5276,7 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="2">
-        <v>-29</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>13.8109</v>
@@ -5303,10 +5306,10 @@
         <v>226480.9256</v>
       </c>
       <c r="K19" s="1">
-        <v>115849.9526</v>
+        <v>115867.4869</v>
       </c>
       <c r="L19" s="1">
-        <v>9.9983</v>
+        <v>9.9998</v>
       </c>
       <c r="M19" s="1">
         <v>1</v>
@@ -5326,7 +5329,7 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="2">
-        <v>-28</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>13.9322</v>
@@ -5356,10 +5359,10 @@
         <v>248407.9927</v>
       </c>
       <c r="K20" s="1">
-        <v>136224.1116</v>
+        <v>136241.6459</v>
       </c>
       <c r="L20" s="1">
-        <v>10.4312</v>
+        <v>10.4326</v>
       </c>
       <c r="M20" s="1">
         <v>0</v>
@@ -5379,7 +5382,7 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="2">
-        <v>-27</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>12.5846</v>
@@ -5409,10 +5412,10 @@
         <v>239996.3627</v>
       </c>
       <c r="K21" s="1">
-        <v>144677.7285</v>
+        <v>144695.2628</v>
       </c>
       <c r="L21" s="1">
-        <v>10.5876</v>
+        <v>10.5889</v>
       </c>
       <c r="M21" s="1">
         <v>0</v>
@@ -5432,7 +5435,7 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="2">
-        <v>-26</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>12.2867</v>
@@ -5462,10 +5465,10 @@
         <v>245148.1818</v>
       </c>
       <c r="K22" s="1">
-        <v>173169.4467</v>
+        <v>173186.981</v>
       </c>
       <c r="L22" s="1">
-        <v>10.8745</v>
+        <v>10.8756</v>
       </c>
       <c r="M22" s="1">
         <v>0.5</v>
@@ -5485,7 +5488,7 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="2">
-        <v>-25</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>13.0645</v>
@@ -5515,10 +5518,10 @@
         <v>275549.8778</v>
       </c>
       <c r="K23" s="1">
-        <v>187962.8687</v>
+        <v>187980.403</v>
       </c>
       <c r="L23" s="1">
-        <v>10.9753</v>
+        <v>10.9764</v>
       </c>
       <c r="M23" s="1">
         <v>0</v>
@@ -5538,7 +5541,7 @@
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="2">
-        <v>-24</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>13.8083</v>
@@ -5568,10 +5571,10 @@
         <v>298074.8809</v>
       </c>
       <c r="K24" s="1">
-        <v>184654.7843</v>
+        <v>184685.5351</v>
       </c>
       <c r="L24" s="1">
-        <v>10.9436</v>
+        <v>10.9455</v>
       </c>
       <c r="M24" s="1">
         <v>0</v>
@@ -5591,7 +5594,7 @@
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="2">
-        <v>-23</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>13.5636</v>
@@ -5621,10 +5624,10 @@
         <v>303999.1808</v>
       </c>
       <c r="K25" s="1">
-        <v>182119.6487</v>
+        <v>182160.532</v>
       </c>
       <c r="L25" s="1">
-        <v>10.9119</v>
+        <v>10.9143</v>
       </c>
       <c r="M25" s="1">
         <v>0.5</v>
@@ -5644,7 +5647,7 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="2">
-        <v>-22</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>13.1788</v>
@@ -5674,10 +5677,10 @@
         <v>314643.1895</v>
       </c>
       <c r="K26" s="1">
-        <v>196251.8117</v>
+        <v>196292.695</v>
       </c>
       <c r="L26" s="1">
-        <v>11.069</v>
+        <v>11.0713</v>
       </c>
       <c r="M26" s="1">
         <v>0</v>
@@ -5697,7 +5700,7 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="2">
-        <v>-21</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>14.5668</v>
@@ -5727,10 +5730,10 @@
         <v>350907.4022</v>
       </c>
       <c r="K27" s="1">
-        <v>213129.3274</v>
+        <v>213170.2106</v>
       </c>
       <c r="L27" s="1">
-        <v>11.2126</v>
+        <v>11.2148</v>
       </c>
       <c r="M27" s="1">
         <v>0</v>
@@ -5750,7 +5753,7 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="2">
-        <v>-20</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>13.962</v>
@@ -5780,10 +5783,10 @@
         <v>350112.297</v>
       </c>
       <c r="K28" s="1">
-        <v>196732.1368</v>
+        <v>196838.5145</v>
       </c>
       <c r="L28" s="1">
-        <v>11.0001</v>
+        <v>11.0061</v>
       </c>
       <c r="M28" s="1">
         <v>0.5</v>
@@ -5803,7 +5806,7 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="2">
-        <v>-19</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>12.2659</v>
@@ -5833,10 +5836,10 @@
         <v>335277.5934</v>
       </c>
       <c r="K29" s="1">
-        <v>217610.6666</v>
+        <v>217717.0442</v>
       </c>
       <c r="L29" s="1">
-        <v>11.2304</v>
+        <v>11.2359</v>
       </c>
       <c r="M29" s="1">
         <v>0</v>
@@ -5856,7 +5859,7 @@
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="2">
-        <v>-18</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>12.4103</v>
@@ -5886,10 +5889,10 @@
         <v>348401.9545</v>
       </c>
       <c r="K30" s="1">
-        <v>260581.6534</v>
+        <v>260688.0311</v>
       </c>
       <c r="L30" s="1">
-        <v>11.3924</v>
+        <v>11.3971</v>
       </c>
       <c r="M30" s="1">
         <v>0</v>
@@ -5909,7 +5912,7 @@
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="2">
-        <v>-17</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>12.3976</v>
@@ -5939,10 +5942,10 @@
         <v>358077.6892</v>
       </c>
       <c r="K31" s="1">
-        <v>267312.5266</v>
+        <v>267418.9042</v>
       </c>
       <c r="L31" s="1">
-        <v>11.4165</v>
+        <v>11.4211</v>
       </c>
       <c r="M31" s="1">
         <v>0.5</v>
@@ -5962,7 +5965,7 @@
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="2">
-        <v>-16</v>
+        <v>30</v>
       </c>
       <c r="B32" s="1">
         <v>12.9013</v>
@@ -5992,10 +5995,10 @@
         <v>390761.7573</v>
       </c>
       <c r="K32" s="1">
-        <v>277651.1704</v>
+        <v>277757.5481</v>
       </c>
       <c r="L32" s="1">
-        <v>11.4511</v>
+        <v>11.4555</v>
       </c>
       <c r="M32" s="1">
         <v>0</v>
@@ -6015,7 +6018,7 @@
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="2">
-        <v>-15</v>
+        <v>31</v>
       </c>
       <c r="B33" s="1">
         <v>13.3527</v>
@@ -6045,10 +6048,10 @@
         <v>411608.3263</v>
       </c>
       <c r="K33" s="1">
-        <v>275453.5479</v>
+        <v>275568.7145</v>
       </c>
       <c r="L33" s="1">
-        <v>11.4407</v>
+        <v>11.4454</v>
       </c>
       <c r="M33" s="1">
         <v>0</v>
@@ -6068,7 +6071,7 @@
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="2">
-        <v>-14</v>
+        <v>32</v>
       </c>
       <c r="B34" s="1">
         <v>13.8804</v>
@@ -6098,10 +6101,10 @@
         <v>434253.6813</v>
       </c>
       <c r="K34" s="1">
-        <v>274603.5801</v>
+        <v>274722.1455</v>
       </c>
       <c r="L34" s="1">
-        <v>11.4355</v>
+        <v>11.4405</v>
       </c>
       <c r="M34" s="1">
         <v>0.5</v>
@@ -6121,7 +6124,7 @@
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="2">
-        <v>-13</v>
+        <v>33</v>
       </c>
       <c r="B35" s="1">
         <v>14.6268</v>
@@ -6151,10 +6154,10 @@
         <v>472807.1954</v>
       </c>
       <c r="K35" s="1">
-        <v>271947.6075</v>
+        <v>272076.7905</v>
       </c>
       <c r="L35" s="1">
-        <v>11.4157</v>
+        <v>11.4211</v>
       </c>
       <c r="M35" s="1">
         <v>0</v>
@@ -6174,7 +6177,7 @@
     </row>
     <row r="36" spans="1:17">
       <c r="A36" s="2">
-        <v>-12</v>
+        <v>34</v>
       </c>
       <c r="B36" s="1">
         <v>15.3636</v>
@@ -6204,10 +6207,10 @@
         <v>499933.4353</v>
       </c>
       <c r="K36" s="1">
-        <v>264168.9882</v>
+        <v>264329.2197</v>
       </c>
       <c r="L36" s="1">
-        <v>11.3419</v>
+        <v>11.3487</v>
       </c>
       <c r="M36" s="1">
         <v>0</v>
@@ -6227,7 +6230,7 @@
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="2">
-        <v>-11</v>
+        <v>35</v>
       </c>
       <c r="B37" s="1">
         <v>13.8711</v>
@@ -6257,10 +6260,10 @@
         <v>475933.0179</v>
       </c>
       <c r="K37" s="1">
-        <v>257014.165</v>
+        <v>257202.9797</v>
       </c>
       <c r="L37" s="1">
-        <v>11.2593</v>
+        <v>11.2676</v>
       </c>
       <c r="M37" s="1">
         <v>0.5</v>
@@ -6280,7 +6283,7 @@
     </row>
     <row r="38" spans="1:17">
       <c r="A38" s="2">
-        <v>-10</v>
+        <v>36</v>
       </c>
       <c r="B38" s="1">
         <v>14.1252</v>
@@ -6310,10 +6313,10 @@
         <v>502623.5556</v>
       </c>
       <c r="K38" s="1">
-        <v>301190.9859</v>
+        <v>301379.8006</v>
       </c>
       <c r="L38" s="1">
-        <v>11.582</v>
+        <v>11.5892</v>
       </c>
       <c r="M38" s="1">
         <v>0</v>
@@ -6333,7 +6336,7 @@
     </row>
     <row r="39" spans="1:17">
       <c r="A39" s="2">
-        <v>-9</v>
+        <v>37</v>
       </c>
       <c r="B39" s="1">
         <v>14.1934</v>
@@ -6363,10 +6366,10 @@
         <v>514394.6851</v>
       </c>
       <c r="K39" s="1">
-        <v>304609.7216</v>
+        <v>304798.5363</v>
       </c>
       <c r="L39" s="1">
-        <v>11.6056</v>
+        <v>11.6128</v>
       </c>
       <c r="M39" s="1">
         <v>0</v>
@@ -6386,7 +6389,7 @@
     </row>
     <row r="40" spans="1:17">
       <c r="A40" s="2">
-        <v>-8</v>
+        <v>38</v>
       </c>
       <c r="B40" s="1">
         <v>14.1176</v>
@@ -6416,10 +6419,10 @@
         <v>522333.6456</v>
       </c>
       <c r="K40" s="1">
-        <v>312857.8868</v>
+        <v>313046.7015</v>
       </c>
       <c r="L40" s="1">
-        <v>11.6622</v>
+        <v>11.6692</v>
       </c>
       <c r="M40" s="1">
         <v>0.5</v>
@@ -6439,7 +6442,7 @@
     </row>
     <row r="41" spans="1:17">
       <c r="A41" s="2">
-        <v>-7</v>
+        <v>39</v>
       </c>
       <c r="B41" s="1">
         <v>15.3311</v>
@@ -6469,10 +6472,10 @@
         <v>577878.3649</v>
       </c>
       <c r="K41" s="1">
-        <v>324934.2182</v>
+        <v>325123.0329</v>
       </c>
       <c r="L41" s="1">
-        <v>11.7388</v>
+        <v>11.7456</v>
       </c>
       <c r="M41" s="1">
         <v>0</v>
@@ -6492,7 +6495,7 @@
     </row>
     <row r="42" spans="1:17">
       <c r="A42" s="2">
-        <v>-6</v>
+        <v>40</v>
       </c>
       <c r="B42" s="1">
         <v>15.3637</v>
@@ -6522,10 +6525,10 @@
         <v>588730.6302</v>
       </c>
       <c r="K42" s="1">
-        <v>301318.8846</v>
+        <v>301602.0881</v>
       </c>
       <c r="L42" s="1">
-        <v>11.5257</v>
+        <v>11.5366</v>
       </c>
       <c r="M42" s="1">
         <v>0</v>
@@ -6545,7 +6548,7 @@
     </row>
     <row r="43" spans="1:17">
       <c r="A43" s="2">
-        <v>-5</v>
+        <v>41</v>
       </c>
       <c r="B43" s="1">
         <v>14.6447</v>
@@ -6575,10 +6578,10 @@
         <v>579505.5219000001</v>
       </c>
       <c r="K43" s="1">
-        <v>310503.3105</v>
+        <v>310786.5139</v>
       </c>
       <c r="L43" s="1">
-        <v>11.6121</v>
+        <v>11.6227</v>
       </c>
       <c r="M43" s="1">
         <v>1</v>
@@ -6598,7 +6601,7 @@
     </row>
     <row r="44" spans="1:17">
       <c r="A44" s="2">
-        <v>-4</v>
+        <v>42</v>
       </c>
       <c r="B44" s="1">
         <v>15.486</v>
@@ -6628,10 +6631,10 @@
         <v>637581.6596</v>
       </c>
       <c r="K44" s="1">
-        <v>339808.7577</v>
+        <v>340091.9611</v>
       </c>
       <c r="L44" s="1">
-        <v>11.8249</v>
+        <v>11.8347</v>
       </c>
       <c r="M44" s="1">
         <v>0</v>
@@ -6651,7 +6654,7 @@
     </row>
     <row r="45" spans="1:17">
       <c r="A45" s="2">
-        <v>-3</v>
+        <v>43</v>
       </c>
       <c r="B45" s="1">
         <v>16.1958</v>
@@ -6681,10 +6684,10 @@
         <v>667291.2682</v>
       </c>
       <c r="K45" s="1">
-        <v>325624.6562</v>
+        <v>325964.5339</v>
       </c>
       <c r="L45" s="1">
-        <v>11.7036</v>
+        <v>11.7158</v>
       </c>
       <c r="M45" s="1">
         <v>0</v>
@@ -6704,7 +6707,7 @@
     </row>
     <row r="46" spans="1:17">
       <c r="A46" s="2">
-        <v>-2</v>
+        <v>44</v>
       </c>
       <c r="B46" s="1">
         <v>16.4264</v>
@@ -6734,10 +6737,10 @@
         <v>683557.7715</v>
       </c>
       <c r="K46" s="1">
-        <v>315876.1213</v>
+        <v>316254.9254</v>
       </c>
       <c r="L46" s="1">
-        <v>11.6037</v>
+        <v>11.6176</v>
       </c>
       <c r="M46" s="1">
         <v>0.75</v>
@@ -6757,7 +6760,7 @@
     </row>
     <row r="47" spans="1:17">
       <c r="A47" s="2">
-        <v>-1</v>
+        <v>45</v>
       </c>
       <c r="B47" s="1">
         <v>17.107</v>
@@ -6787,10 +6790,10 @@
         <v>730561.5168</v>
       </c>
       <c r="K47" s="1">
-        <v>319624.5805</v>
+        <v>320003.3846</v>
       </c>
       <c r="L47" s="1">
-        <v>11.644</v>
+        <v>11.6578</v>
       </c>
       <c r="M47" s="1">
         <v>0</v>
@@ -6810,7 +6813,7 @@
     </row>
     <row r="48" spans="1:17">
       <c r="A48" s="2">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="B48" s="1">
         <v>16.8894</v>
@@ -6840,10 +6843,10 @@
         <v>734709.4011</v>
       </c>
       <c r="K48" s="1">
-        <v>310946.0383</v>
+        <v>311359.5236</v>
       </c>
       <c r="L48" s="1">
-        <v>11.5407</v>
+        <v>11.556</v>
       </c>
       <c r="M48" s="1">
         <v>1</v>
@@ -6863,7 +6866,7 @@
     </row>
     <row r="49" spans="1:17">
       <c r="A49" s="2">
-        <v>1</v>
+        <v>47</v>
       </c>
       <c r="B49" s="1">
         <v>16.4004</v>
@@ -6893,10 +6896,10 @@
         <v>755287.5765</v>
       </c>
       <c r="K49" s="1">
-        <v>326861.7295</v>
+        <v>327275.2147</v>
       </c>
       <c r="L49" s="1">
-        <v>11.7222</v>
+        <v>11.7371</v>
       </c>
       <c r="M49" s="1">
         <v>0</v>
@@ -6916,7 +6919,7 @@
     </row>
     <row r="50" spans="1:17">
       <c r="A50" s="2">
-        <v>2</v>
+        <v>48</v>
       </c>
       <c r="B50" s="1">
         <v>15.3877</v>
@@ -6946,10 +6949,10 @@
         <v>735552.7955</v>
       </c>
       <c r="K50" s="1">
-        <v>350563.8371</v>
+        <v>350977.3224</v>
       </c>
       <c r="L50" s="1">
-        <v>11.9539</v>
+        <v>11.968</v>
       </c>
       <c r="M50" s="1">
         <v>0</v>
@@ -6969,7 +6972,7 @@
     </row>
     <row r="51" spans="1:17">
       <c r="A51" s="2">
-        <v>3</v>
+        <v>49</v>
       </c>
       <c r="B51" s="1">
         <v>14.6367</v>
@@ -6999,10 +7002,10 @@
         <v>721479.1331</v>
       </c>
       <c r="K51" s="1">
-        <v>390362.8627</v>
+        <v>390776.348</v>
       </c>
       <c r="L51" s="1">
-        <v>12.2342</v>
+        <v>12.2472</v>
       </c>
       <c r="M51" s="1">
         <v>0</v>
@@ -7022,7 +7025,7 @@
     </row>
     <row r="52" spans="1:17">
       <c r="A52" s="2">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="B52" s="1">
         <v>13.0061</v>
@@ -7052,10 +7055,10 @@
         <v>675641.8589</v>
       </c>
       <c r="K52" s="1">
-        <v>424413.5743</v>
+        <v>424827.0595</v>
       </c>
       <c r="L52" s="1">
-        <v>12.3992</v>
+        <v>12.4112</v>
       </c>
       <c r="M52" s="1">
         <v>0.5</v>
@@ -7075,7 +7078,7 @@
     </row>
     <row r="53" spans="1:17">
       <c r="A53" s="2">
-        <v>5</v>
+        <v>51</v>
       </c>
       <c r="B53" s="1">
         <v>13.835</v>
@@ -7105,10 +7108,10 @@
         <v>733282.7413</v>
       </c>
       <c r="K53" s="1">
-        <v>490378.5081</v>
+        <v>490791.9934</v>
       </c>
       <c r="L53" s="1">
-        <v>12.4807</v>
+        <v>12.4912</v>
       </c>
       <c r="M53" s="1">
         <v>0</v>
@@ -7128,7 +7131,7 @@
     </row>
     <row r="54" spans="1:17">
       <c r="A54" s="2">
-        <v>6</v>
+        <v>52</v>
       </c>
       <c r="B54" s="1">
         <v>14.4216</v>
@@ -7158,10 +7161,10 @@
         <v>765333.3957</v>
       </c>
       <c r="K54" s="1">
-        <v>467786.7795</v>
+        <v>468290.5489</v>
       </c>
       <c r="L54" s="1">
-        <v>12.4209</v>
+        <v>12.4343</v>
       </c>
       <c r="M54" s="1">
         <v>0</v>
@@ -7181,7 +7184,7 @@
     </row>
     <row r="55" spans="1:17">
       <c r="A55" s="2">
-        <v>7</v>
+        <v>53</v>
       </c>
       <c r="B55" s="1">
         <v>13.2404</v>
@@ -7211,10 +7214,10 @@
         <v>731921.6203</v>
       </c>
       <c r="K55" s="1">
-        <v>455687.8147</v>
+        <v>456239.8945</v>
       </c>
       <c r="L55" s="1">
-        <v>12.3748</v>
+        <v>12.3898</v>
       </c>
       <c r="M55" s="1">
         <v>0.4</v>
@@ -7234,7 +7237,7 @@
     </row>
     <row r="56" spans="1:17">
       <c r="A56" s="2">
-        <v>8</v>
+        <v>54</v>
       </c>
       <c r="B56" s="1">
         <v>12.382</v>
@@ -7264,10 +7267,10 @@
         <v>719954.0662</v>
       </c>
       <c r="K56" s="1">
-        <v>509313.8208</v>
+        <v>509865.9006</v>
       </c>
       <c r="L56" s="1">
-        <v>12.463</v>
+        <v>12.4765</v>
       </c>
       <c r="M56" s="1">
         <v>0</v>
@@ -7287,7 +7290,7 @@
     </row>
     <row r="57" spans="1:17">
       <c r="A57" s="2">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="B57" s="1">
         <v>11.9583</v>
@@ -7317,10 +7320,10 @@
         <v>710955.224</v>
       </c>
       <c r="K57" s="1">
-        <v>554504.4358</v>
+        <v>555056.5157</v>
       </c>
       <c r="L57" s="1">
-        <v>12.4584</v>
+        <v>12.4708</v>
       </c>
       <c r="M57" s="1">
         <v>0</v>
@@ -7340,7 +7343,7 @@
     </row>
     <row r="58" spans="1:17">
       <c r="A58" s="2">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="B58" s="1">
         <v>12.2036</v>
@@ -7370,10 +7373,10 @@
         <v>732326.3536</v>
       </c>
       <c r="K58" s="1">
-        <v>583438.2796</v>
+        <v>583990.3594</v>
       </c>
       <c r="L58" s="1">
-        <v>12.4339</v>
+        <v>12.4457</v>
       </c>
       <c r="M58" s="1">
         <v>0.4</v>
@@ -7393,7 +7396,7 @@
     </row>
     <row r="59" spans="1:17">
       <c r="A59" s="2">
-        <v>11</v>
+        <v>57</v>
       </c>
       <c r="B59" s="1">
         <v>12.9136</v>
@@ -7423,10 +7426,10 @@
         <v>792381.9604</v>
       </c>
       <c r="K59" s="1">
-        <v>581945.5155</v>
+        <v>582503.5649</v>
       </c>
       <c r="L59" s="1">
-        <v>12.4344</v>
+        <v>12.4464</v>
       </c>
       <c r="M59" s="1">
         <v>0</v>
@@ -7446,7 +7449,7 @@
     </row>
     <row r="60" spans="1:17">
       <c r="A60" s="2">
-        <v>12</v>
+        <v>58</v>
       </c>
       <c r="B60" s="1">
         <v>13.4338</v>
@@ -7476,10 +7479,10 @@
         <v>825743.434</v>
       </c>
       <c r="K60" s="1">
-        <v>558689.3331</v>
+        <v>559340.303</v>
       </c>
       <c r="L60" s="1">
-        <v>12.4143</v>
+        <v>12.4287</v>
       </c>
       <c r="M60" s="1">
         <v>0</v>
@@ -7499,7 +7502,7 @@
     </row>
     <row r="61" spans="1:17">
       <c r="A61" s="2">
-        <v>13</v>
+        <v>59</v>
       </c>
       <c r="B61" s="1">
         <v>12.9657</v>
@@ -7529,10 +7532,10 @@
         <v>815187.6753999999</v>
       </c>
       <c r="K61" s="1">
-        <v>545274.2417</v>
+        <v>545978.8293</v>
       </c>
       <c r="L61" s="1">
-        <v>12.3906</v>
+        <v>12.4066</v>
       </c>
       <c r="M61" s="1">
         <v>0.3</v>
@@ -7552,7 +7555,7 @@
     </row>
     <row r="62" spans="1:17">
       <c r="A62" s="2">
-        <v>14</v>
+        <v>60</v>
       </c>
       <c r="B62" s="1">
         <v>13.3568</v>
@@ -7582,10 +7585,10 @@
         <v>855044.7135</v>
       </c>
       <c r="K62" s="1">
-        <v>575952.5559</v>
+        <v>576657.1433999999</v>
       </c>
       <c r="L62" s="1">
-        <v>12.4212</v>
+        <v>12.4364</v>
       </c>
       <c r="M62" s="1">
         <v>0</v>
@@ -7690,7 +7693,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>-46</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>8.9413</v>
@@ -7737,7 +7740,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>-45</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>8.9801</v>
@@ -7790,7 +7793,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>-44</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>8.6477</v>
@@ -7843,7 +7846,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>-43</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>9.568899999999999</v>
@@ -7896,7 +7899,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>-42</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>9.429399999999999</v>
@@ -7949,7 +7952,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>-41</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>9.603999999999999</v>
@@ -8002,7 +8005,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>-40</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>10.3595</v>
@@ -8055,7 +8058,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>-39</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>10.0875</v>
@@ -8108,7 +8111,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>-38</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>10.1692</v>
@@ -8161,7 +8164,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>-37</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>11.0872</v>
@@ -8214,7 +8217,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>-36</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>11.0976</v>
@@ -8267,7 +8270,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>-35</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>10.8505</v>
@@ -8320,7 +8323,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>-34</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>11.8576</v>
@@ -8373,7 +8376,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="2">
-        <v>-33</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>12.5699</v>
@@ -8403,10 +8406,10 @@
         <v>169027.498</v>
       </c>
       <c r="K15" s="1">
-        <v>110758.3691</v>
+        <v>110761.7117</v>
       </c>
       <c r="L15" s="1">
-        <v>9.7834</v>
+        <v>9.7837</v>
       </c>
       <c r="M15" s="1">
         <v>0</v>
@@ -8426,7 +8429,7 @@
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="2">
-        <v>-32</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>13.5994</v>
@@ -8456,10 +8459,10 @@
         <v>190862.9668</v>
       </c>
       <c r="K16" s="1">
-        <v>113390.595</v>
+        <v>113393.9376</v>
       </c>
       <c r="L16" s="1">
-        <v>9.834300000000001</v>
+        <v>9.8346</v>
       </c>
       <c r="M16" s="1">
         <v>0.5</v>
@@ -8479,7 +8482,7 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="2">
-        <v>-31</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>14.6663</v>
@@ -8509,10 +8512,10 @@
         <v>218240.6114</v>
       </c>
       <c r="K17" s="1">
-        <v>112263.3251</v>
+        <v>112271.168</v>
       </c>
       <c r="L17" s="1">
-        <v>9.806900000000001</v>
+        <v>9.807600000000001</v>
       </c>
       <c r="M17" s="1">
         <v>0</v>
@@ -8532,7 +8535,7 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="2">
-        <v>-30</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>14.701</v>
@@ -8562,10 +8565,10 @@
         <v>228633.3506</v>
       </c>
       <c r="K18" s="1">
-        <v>110845.3699</v>
+        <v>110858.8766</v>
       </c>
       <c r="L18" s="1">
-        <v>9.7654</v>
+        <v>9.7666</v>
       </c>
       <c r="M18" s="1">
         <v>0</v>
@@ -8585,7 +8588,7 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="2">
-        <v>-29</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>13.8109</v>
@@ -8615,10 +8618,10 @@
         <v>227876.5194</v>
       </c>
       <c r="K19" s="1">
-        <v>121325.246</v>
+        <v>121338.7527</v>
       </c>
       <c r="L19" s="1">
-        <v>10.0582</v>
+        <v>10.0594</v>
       </c>
       <c r="M19" s="1">
         <v>1</v>
@@ -8638,7 +8641,7 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="2">
-        <v>-28</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>13.9322</v>
@@ -8668,10 +8671,10 @@
         <v>250295.0703</v>
       </c>
       <c r="K20" s="1">
-        <v>143011.699</v>
+        <v>143025.2057</v>
       </c>
       <c r="L20" s="1">
-        <v>10.4929</v>
+        <v>10.4939</v>
       </c>
       <c r="M20" s="1">
         <v>0</v>
@@ -8691,7 +8694,7 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="2">
-        <v>-27</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>12.5846</v>
@@ -8721,10 +8724,10 @@
         <v>241029.0374</v>
       </c>
       <c r="K21" s="1">
-        <v>152339.1157</v>
+        <v>152352.6224</v>
       </c>
       <c r="L21" s="1">
-        <v>10.6549</v>
+        <v>10.6559</v>
       </c>
       <c r="M21" s="1">
         <v>0</v>
@@ -8744,7 +8747,7 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="2">
-        <v>-26</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>12.2867</v>
@@ -8774,10 +8777,10 @@
         <v>245941.6816</v>
       </c>
       <c r="K22" s="1">
-        <v>182683.1335</v>
+        <v>182696.6402</v>
       </c>
       <c r="L22" s="1">
-        <v>10.9365</v>
+        <v>10.9374</v>
       </c>
       <c r="M22" s="1">
         <v>0.5</v>
@@ -8797,7 +8800,7 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="2">
-        <v>-25</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>13.0645</v>
@@ -8827,10 +8830,10 @@
         <v>277375.3287</v>
       </c>
       <c r="K23" s="1">
-        <v>198762.4215</v>
+        <v>198775.9282</v>
       </c>
       <c r="L23" s="1">
-        <v>11.0362</v>
+        <v>11.037</v>
       </c>
       <c r="M23" s="1">
         <v>0</v>
@@ -8850,7 +8853,7 @@
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="2">
-        <v>-24</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>13.8083</v>
@@ -8880,10 +8883,10 @@
         <v>300580.3433</v>
       </c>
       <c r="K24" s="1">
-        <v>195873.9386</v>
+        <v>195898.9854</v>
       </c>
       <c r="L24" s="1">
-        <v>11.0108</v>
+        <v>11.0122</v>
       </c>
       <c r="M24" s="1">
         <v>0</v>
@@ -8903,7 +8906,7 @@
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="2">
-        <v>-23</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>13.5636</v>
@@ -8933,10 +8936,10 @@
         <v>306272.4341</v>
       </c>
       <c r="K25" s="1">
-        <v>193820.4381</v>
+        <v>193853.6924</v>
       </c>
       <c r="L25" s="1">
-        <v>10.987</v>
+        <v>10.9889</v>
       </c>
       <c r="M25" s="1">
         <v>0.5</v>
@@ -8956,7 +8959,7 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="2">
-        <v>-22</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>13.1788</v>
@@ -8986,10 +8989,10 @@
         <v>316932.2201</v>
       </c>
       <c r="K26" s="1">
-        <v>209406.1378</v>
+        <v>209439.3921</v>
       </c>
       <c r="L26" s="1">
-        <v>11.1459</v>
+        <v>11.1477</v>
       </c>
       <c r="M26" s="1">
         <v>0</v>
@@ -9009,7 +9012,7 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="2">
-        <v>-21</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>14.5668</v>
@@ -9039,10 +9042,10 @@
         <v>354831.8625</v>
       </c>
       <c r="K27" s="1">
-        <v>227968.3064</v>
+        <v>228001.5607</v>
       </c>
       <c r="L27" s="1">
-        <v>11.2893</v>
+        <v>11.2909</v>
       </c>
       <c r="M27" s="1">
         <v>0</v>
@@ -9062,7 +9065,7 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="2">
-        <v>-20</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>13.962</v>
@@ -9092,10 +9095,10 @@
         <v>353334.2822</v>
       </c>
       <c r="K28" s="1">
-        <v>211255.6459</v>
+        <v>211355.6546</v>
       </c>
       <c r="L28" s="1">
-        <v>11.0905</v>
+        <v>11.0957</v>
       </c>
       <c r="M28" s="1">
         <v>0.5</v>
@@ -9115,7 +9118,7 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="2">
-        <v>-19</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>12.2659</v>
@@ -9145,10 +9148,10 @@
         <v>336791.4052</v>
       </c>
       <c r="K29" s="1">
-        <v>234229.619</v>
+        <v>234329.6277</v>
       </c>
       <c r="L29" s="1">
-        <v>11.3206</v>
+        <v>11.3255</v>
       </c>
       <c r="M29" s="1">
         <v>0</v>
@@ -9168,7 +9171,7 @@
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="2">
-        <v>-18</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>12.4103</v>
@@ -9198,10 +9201,10 @@
         <v>350133.4973</v>
       </c>
       <c r="K30" s="1">
-        <v>280880.3394</v>
+        <v>280980.3481</v>
       </c>
       <c r="L30" s="1">
-        <v>11.471</v>
+        <v>11.4751</v>
       </c>
       <c r="M30" s="1">
         <v>0</v>
@@ -9221,7 +9224,7 @@
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="2">
-        <v>-17</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>12.3976</v>
@@ -9251,10 +9254,10 @@
         <v>359782.3674</v>
       </c>
       <c r="K31" s="1">
-        <v>288882.5885</v>
+        <v>288982.5972</v>
       </c>
       <c r="L31" s="1">
-        <v>11.4957</v>
+        <v>11.4996</v>
       </c>
       <c r="M31" s="1">
         <v>0.5</v>
@@ -9274,7 +9277,7 @@
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="2">
-        <v>-16</v>
+        <v>30</v>
       </c>
       <c r="B32" s="1">
         <v>12.9013</v>
@@ -9304,10 +9307,10 @@
         <v>394158.3198</v>
       </c>
       <c r="K32" s="1">
-        <v>300805.5614</v>
+        <v>300905.5701</v>
       </c>
       <c r="L32" s="1">
-        <v>11.5298</v>
+        <v>11.5336</v>
       </c>
       <c r="M32" s="1">
         <v>0</v>
@@ -9327,7 +9330,7 @@
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="2">
-        <v>-15</v>
+        <v>31</v>
       </c>
       <c r="B33" s="1">
         <v>13.3527</v>
@@ -9357,10 +9360,10 @@
         <v>415859.1145</v>
       </c>
       <c r="K33" s="1">
-        <v>299298.3427</v>
+        <v>299404.3793</v>
       </c>
       <c r="L33" s="1">
-        <v>11.5235</v>
+        <v>11.5276</v>
       </c>
       <c r="M33" s="1">
         <v>0</v>
@@ -9380,7 +9383,7 @@
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="2">
-        <v>-14</v>
+        <v>32</v>
       </c>
       <c r="B34" s="1">
         <v>13.8804</v>
@@ -9410,10 +9413,10 @@
         <v>439535.3124</v>
       </c>
       <c r="K34" s="1">
-        <v>299269.5035</v>
+        <v>299375.6554</v>
       </c>
       <c r="L34" s="1">
-        <v>11.5233</v>
+        <v>11.5274</v>
       </c>
       <c r="M34" s="1">
         <v>0.5</v>
@@ -9433,7 +9436,7 @@
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="2">
-        <v>-13</v>
+        <v>33</v>
       </c>
       <c r="B35" s="1">
         <v>14.6268</v>
@@ -9463,10 +9466,10 @@
         <v>480465.7163</v>
       </c>
       <c r="K35" s="1">
-        <v>297315.9272</v>
+        <v>297429.8887</v>
       </c>
       <c r="L35" s="1">
-        <v>11.5104</v>
+        <v>11.5148</v>
       </c>
       <c r="M35" s="1">
         <v>0</v>
@@ -9486,7 +9489,7 @@
     </row>
     <row r="36" spans="1:17">
       <c r="A36" s="2">
-        <v>-12</v>
+        <v>34</v>
       </c>
       <c r="B36" s="1">
         <v>15.3636</v>
@@ -9516,10 +9519,10 @@
         <v>509083.2363</v>
       </c>
       <c r="K36" s="1">
-        <v>289831.5709</v>
+        <v>289975.4064</v>
       </c>
       <c r="L36" s="1">
-        <v>11.4469</v>
+        <v>11.4526</v>
       </c>
       <c r="M36" s="1">
         <v>0</v>
@@ -9539,7 +9542,7 @@
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="2">
-        <v>-11</v>
+        <v>35</v>
       </c>
       <c r="B37" s="1">
         <v>13.8711</v>
@@ -9569,10 +9572,10 @@
         <v>482027.2713</v>
       </c>
       <c r="K37" s="1">
-        <v>283034.9274</v>
+        <v>283205.9152</v>
       </c>
       <c r="L37" s="1">
-        <v>11.3769</v>
+        <v>11.3837</v>
       </c>
       <c r="M37" s="1">
         <v>0.5</v>
@@ -9592,7 +9595,7 @@
     </row>
     <row r="38" spans="1:17">
       <c r="A38" s="2">
-        <v>-10</v>
+        <v>36</v>
       </c>
       <c r="B38" s="1">
         <v>14.1252</v>
@@ -9622,10 +9625,10 @@
         <v>510232.1862</v>
       </c>
       <c r="K38" s="1">
-        <v>332194.4613</v>
+        <v>332365.4491</v>
       </c>
       <c r="L38" s="1">
-        <v>11.6908</v>
+        <v>11.6968</v>
       </c>
       <c r="M38" s="1">
         <v>0</v>
@@ -9645,7 +9648,7 @@
     </row>
     <row r="39" spans="1:17">
       <c r="A39" s="2">
-        <v>-9</v>
+        <v>37</v>
       </c>
       <c r="B39" s="1">
         <v>14.1934</v>
@@ -9675,10 +9678,10 @@
         <v>522168.294</v>
       </c>
       <c r="K39" s="1">
-        <v>336974.288</v>
+        <v>337145.2758</v>
       </c>
       <c r="L39" s="1">
-        <v>11.7197</v>
+        <v>11.7257</v>
       </c>
       <c r="M39" s="1">
         <v>0</v>
@@ -9698,7 +9701,7 @@
     </row>
     <row r="40" spans="1:17">
       <c r="A40" s="2">
-        <v>-8</v>
+        <v>38</v>
       </c>
       <c r="B40" s="1">
         <v>14.1176</v>
@@ -9728,10 +9731,10 @@
         <v>529900.4467</v>
       </c>
       <c r="K40" s="1">
-        <v>347086.124</v>
+        <v>347257.1118</v>
       </c>
       <c r="L40" s="1">
-        <v>11.7801</v>
+        <v>11.7859</v>
       </c>
       <c r="M40" s="1">
         <v>0.5</v>
@@ -9751,7 +9754,7 @@
     </row>
     <row r="41" spans="1:17">
       <c r="A41" s="2">
-        <v>-7</v>
+        <v>39</v>
       </c>
       <c r="B41" s="1">
         <v>15.3311</v>
@@ -9781,10 +9784,10 @@
         <v>590012.7143</v>
       </c>
       <c r="K41" s="1">
-        <v>361457.7601</v>
+        <v>361628.7479</v>
       </c>
       <c r="L41" s="1">
-        <v>11.859</v>
+        <v>11.8646</v>
       </c>
       <c r="M41" s="1">
         <v>0</v>
@@ -9804,7 +9807,7 @@
     </row>
     <row r="42" spans="1:17">
       <c r="A42" s="2">
-        <v>-6</v>
+        <v>40</v>
       </c>
       <c r="B42" s="1">
         <v>15.3637</v>
@@ -9834,10 +9837,10 @@
         <v>600953.5906999999</v>
       </c>
       <c r="K42" s="1">
-        <v>336594.6236</v>
+        <v>336864.9876</v>
       </c>
       <c r="L42" s="1">
-        <v>11.6625</v>
+        <v>11.6719</v>
       </c>
       <c r="M42" s="1">
         <v>0</v>
@@ -9857,7 +9860,7 @@
     </row>
     <row r="43" spans="1:17">
       <c r="A43" s="2">
-        <v>-5</v>
+        <v>41</v>
       </c>
       <c r="B43" s="1">
         <v>14.6447</v>
@@ -9887,10 +9890,10 @@
         <v>589670.265</v>
       </c>
       <c r="K43" s="1">
-        <v>347906.8814</v>
+        <v>348177.2453</v>
       </c>
       <c r="L43" s="1">
-        <v>11.7552</v>
+        <v>11.7643</v>
       </c>
       <c r="M43" s="1">
         <v>1</v>
@@ -9910,7 +9913,7 @@
     </row>
     <row r="44" spans="1:17">
       <c r="A44" s="2">
-        <v>-4</v>
+        <v>42</v>
       </c>
       <c r="B44" s="1">
         <v>15.486</v>
@@ -9940,10 +9943,10 @@
         <v>652946.0867</v>
       </c>
       <c r="K44" s="1">
-        <v>381548.3432</v>
+        <v>381818.7071</v>
       </c>
       <c r="L44" s="1">
-        <v>11.965</v>
+        <v>11.9735</v>
       </c>
       <c r="M44" s="1">
         <v>0</v>
@@ -9963,7 +9966,7 @@
     </row>
     <row r="45" spans="1:17">
       <c r="A45" s="2">
-        <v>-3</v>
+        <v>43</v>
       </c>
       <c r="B45" s="1">
         <v>16.1958</v>
@@ -9993,10 +9996,10 @@
         <v>684873.9761</v>
       </c>
       <c r="K45" s="1">
-        <v>367047.0166</v>
+        <v>367375.3223</v>
       </c>
       <c r="L45" s="1">
-        <v>11.8578</v>
+        <v>11.8684</v>
       </c>
       <c r="M45" s="1">
         <v>0</v>
@@ -10016,7 +10019,7 @@
     </row>
     <row r="46" spans="1:17">
       <c r="A46" s="2">
-        <v>-2</v>
+        <v>44</v>
       </c>
       <c r="B46" s="1">
         <v>16.4264</v>
@@ -10046,10 +10049,10 @@
         <v>701863.8006</v>
       </c>
       <c r="K46" s="1">
-        <v>357472.8758</v>
+        <v>357839.4115</v>
       </c>
       <c r="L46" s="1">
-        <v>11.7729</v>
+        <v>11.7849</v>
       </c>
       <c r="M46" s="1">
         <v>0.75</v>
@@ -10069,7 +10072,7 @@
     </row>
     <row r="47" spans="1:17">
       <c r="A47" s="2">
-        <v>-1</v>
+        <v>45</v>
       </c>
       <c r="B47" s="1">
         <v>17.107</v>
@@ -10099,10 +10102,10 @@
         <v>753187.4002</v>
       </c>
       <c r="K47" s="1">
-        <v>362958.8881</v>
+        <v>363325.4238</v>
       </c>
       <c r="L47" s="1">
-        <v>11.8237</v>
+        <v>11.8357</v>
       </c>
       <c r="M47" s="1">
         <v>0</v>
@@ -10122,7 +10125,7 @@
     </row>
     <row r="48" spans="1:17">
       <c r="A48" s="2">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="B48" s="1">
         <v>16.8894</v>
@@ -10152,10 +10155,10 @@
         <v>756625.9337000001</v>
       </c>
       <c r="K48" s="1">
-        <v>354591.9555</v>
+        <v>354991.9271</v>
       </c>
       <c r="L48" s="1">
-        <v>11.7378</v>
+        <v>11.7511</v>
       </c>
       <c r="M48" s="1">
         <v>1</v>
@@ -10175,7 +10178,7 @@
     </row>
     <row r="49" spans="1:17">
       <c r="A49" s="2">
-        <v>1</v>
+        <v>47</v>
       </c>
       <c r="B49" s="1">
         <v>16.4004</v>
@@ -10205,10 +10208,10 @@
         <v>778441.27</v>
       </c>
       <c r="K49" s="1">
-        <v>373808.9739</v>
+        <v>374208.9455</v>
       </c>
       <c r="L49" s="1">
-        <v>11.9257</v>
+        <v>11.9384</v>
       </c>
       <c r="M49" s="1">
         <v>0</v>
@@ -10228,7 +10231,7 @@
     </row>
     <row r="50" spans="1:17">
       <c r="A50" s="2">
-        <v>2</v>
+        <v>48</v>
       </c>
       <c r="B50" s="1">
         <v>15.3877</v>
@@ -10258,10 +10261,10 @@
         <v>754923.6917</v>
       </c>
       <c r="K50" s="1">
-        <v>401859.0989</v>
+        <v>402259.0705</v>
       </c>
       <c r="L50" s="1">
-        <v>12.1585</v>
+        <v>12.1706</v>
       </c>
       <c r="M50" s="1">
         <v>0</v>
@@ -10281,7 +10284,7 @@
     </row>
     <row r="51" spans="1:17">
       <c r="A51" s="2">
-        <v>3</v>
+        <v>49</v>
       </c>
       <c r="B51" s="1">
         <v>14.6367</v>
@@ -10311,10 +10314,10 @@
         <v>737715.9893</v>
       </c>
       <c r="K51" s="1">
-        <v>448154.384</v>
+        <v>448554.3556</v>
       </c>
       <c r="L51" s="1">
-        <v>12.43</v>
+        <v>12.4411</v>
       </c>
       <c r="M51" s="1">
         <v>0</v>
@@ -10334,7 +10337,7 @@
     </row>
     <row r="52" spans="1:17">
       <c r="A52" s="2">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="B52" s="1">
         <v>13.0061</v>
@@ -10364,10 +10367,10 @@
         <v>684452.2669</v>
       </c>
       <c r="K52" s="1">
-        <v>488105.1723</v>
+        <v>488505.1439</v>
       </c>
       <c r="L52" s="1">
-        <v>12.587</v>
+        <v>12.5974</v>
       </c>
       <c r="M52" s="1">
         <v>0.5</v>
@@ -10387,7 +10390,7 @@
     </row>
     <row r="53" spans="1:17">
       <c r="A53" s="2">
-        <v>5</v>
+        <v>51</v>
       </c>
       <c r="B53" s="1">
         <v>13.835</v>
@@ -10417,10 +10420,10 @@
         <v>748514.5421</v>
       </c>
       <c r="K53" s="1">
-        <v>564346.3202</v>
+        <v>564746.2918</v>
       </c>
       <c r="L53" s="1">
-        <v>12.6454</v>
+        <v>12.6544</v>
       </c>
       <c r="M53" s="1">
         <v>0</v>
@@ -10440,7 +10443,7 @@
     </row>
     <row r="54" spans="1:17">
       <c r="A54" s="2">
-        <v>6</v>
+        <v>52</v>
       </c>
       <c r="B54" s="1">
         <v>14.4216</v>
@@ -10470,10 +10473,10 @@
         <v>783626.01</v>
       </c>
       <c r="K54" s="1">
-        <v>540229.5705</v>
+        <v>540725.9207</v>
       </c>
       <c r="L54" s="1">
-        <v>12.596</v>
+        <v>12.6076</v>
       </c>
       <c r="M54" s="1">
         <v>0</v>
@@ -10493,7 +10496,7 @@
     </row>
     <row r="55" spans="1:17">
       <c r="A55" s="2">
-        <v>7</v>
+        <v>53</v>
       </c>
       <c r="B55" s="1">
         <v>13.2404</v>
@@ -10523,10 +10526,10 @@
         <v>744059.4926</v>
       </c>
       <c r="K55" s="1">
-        <v>528030.2932</v>
+        <v>528575.3544</v>
       </c>
       <c r="L55" s="1">
-        <v>12.5588</v>
+        <v>12.5717</v>
       </c>
       <c r="M55" s="1">
         <v>0.4</v>
@@ -10546,7 +10549,7 @@
     </row>
     <row r="56" spans="1:17">
       <c r="A56" s="2">
-        <v>8</v>
+        <v>54</v>
       </c>
       <c r="B56" s="1">
         <v>12.382</v>
@@ -10576,10 +10579,10 @@
         <v>728866.7717</v>
       </c>
       <c r="K56" s="1">
-        <v>590873.5695</v>
+        <v>591418.6308</v>
       </c>
       <c r="L56" s="1">
-        <v>12.6305</v>
+        <v>12.6421</v>
       </c>
       <c r="M56" s="1">
         <v>0</v>
@@ -10599,7 +10602,7 @@
     </row>
     <row r="57" spans="1:17">
       <c r="A57" s="2">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="B57" s="1">
         <v>11.9583</v>
@@ -10629,10 +10632,10 @@
         <v>717054.9584</v>
       </c>
       <c r="K57" s="1">
-        <v>644255.5814</v>
+        <v>644800.6426</v>
       </c>
       <c r="L57" s="1">
-        <v>12.6116</v>
+        <v>12.6223</v>
       </c>
       <c r="M57" s="1">
         <v>0</v>
@@ -10652,7 +10655,7 @@
     </row>
     <row r="58" spans="1:17">
       <c r="A58" s="2">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="B58" s="1">
         <v>12.2036</v>
@@ -10682,10 +10685,10 @@
         <v>740133.7732000001</v>
       </c>
       <c r="K58" s="1">
-        <v>679149.7641</v>
+        <v>679694.8254</v>
       </c>
       <c r="L58" s="1">
-        <v>12.5777</v>
+        <v>12.5878</v>
       </c>
       <c r="M58" s="1">
         <v>0.4</v>
@@ -10705,7 +10708,7 @@
     </row>
     <row r="59" spans="1:17">
       <c r="A59" s="2">
-        <v>11</v>
+        <v>57</v>
       </c>
       <c r="B59" s="1">
         <v>12.9136</v>
@@ -10735,10 +10738,10 @@
         <v>807834.4766000001</v>
       </c>
       <c r="K59" s="1">
-        <v>679153.5429999999</v>
+        <v>679698.6041999999</v>
       </c>
       <c r="L59" s="1">
-        <v>12.5777</v>
+        <v>12.5878</v>
       </c>
       <c r="M59" s="1">
         <v>0</v>
@@ -10758,7 +10761,7 @@
     </row>
     <row r="60" spans="1:17">
       <c r="A60" s="2">
-        <v>12</v>
+        <v>58</v>
       </c>
       <c r="B60" s="1">
         <v>13.4338</v>
@@ -10788,10 +10791,10 @@
         <v>844858.2352999999</v>
       </c>
       <c r="K60" s="1">
-        <v>654079.5072</v>
+        <v>654724.7522</v>
       </c>
       <c r="L60" s="1">
-        <v>12.5642</v>
+        <v>12.5766</v>
       </c>
       <c r="M60" s="1">
         <v>0</v>
@@ -10811,7 +10814,7 @@
     </row>
     <row r="61" spans="1:17">
       <c r="A61" s="2">
-        <v>13</v>
+        <v>59</v>
       </c>
       <c r="B61" s="1">
         <v>12.9657</v>
@@ -10841,10 +10844,10 @@
         <v>831017.7741</v>
       </c>
       <c r="K61" s="1">
-        <v>640355.5176</v>
+        <v>641055.6149</v>
       </c>
       <c r="L61" s="1">
-        <v>12.5463</v>
+        <v>12.56</v>
       </c>
       <c r="M61" s="1">
         <v>0.3</v>
@@ -10864,7 +10867,7 @@
     </row>
     <row r="62" spans="1:17">
       <c r="A62" s="2">
-        <v>14</v>
+        <v>60</v>
       </c>
       <c r="B62" s="1">
         <v>13.3568</v>
@@ -10894,10 +10897,10 @@
         <v>875693.4971</v>
       </c>
       <c r="K62" s="1">
-        <v>677766.8262</v>
+        <v>678466.9235</v>
       </c>
       <c r="L62" s="1">
-        <v>12.5701</v>
+        <v>12.5831</v>
       </c>
       <c r="M62" s="1">
         <v>0</v>
@@ -11002,7 +11005,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>-46</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>8.9413</v>
@@ -11049,7 +11052,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>-45</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>8.9801</v>
@@ -11102,7 +11105,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>-44</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>8.6477</v>
@@ -11155,7 +11158,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>-43</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>9.568899999999999</v>
@@ -11208,7 +11211,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>-42</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>9.429399999999999</v>
@@ -11261,7 +11264,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>-41</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>9.603999999999999</v>
@@ -11314,7 +11317,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>-40</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>10.3595</v>
@@ -11367,7 +11370,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>-39</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>10.0875</v>
@@ -11420,7 +11423,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>-38</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>10.1692</v>
@@ -11473,7 +11476,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>-37</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>11.0872</v>
@@ -11526,7 +11529,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>-36</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>11.0976</v>
@@ -11579,7 +11582,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>-35</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>10.8505</v>
@@ -11632,7 +11635,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>-34</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>11.8576</v>
@@ -11685,7 +11688,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="2">
-        <v>-33</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>12.5699</v>
@@ -11715,10 +11718,10 @@
         <v>169894.3529</v>
       </c>
       <c r="K15" s="1">
-        <v>114416.8409</v>
+        <v>114418.8611</v>
       </c>
       <c r="L15" s="1">
-        <v>9.8049</v>
+        <v>9.805099999999999</v>
       </c>
       <c r="M15" s="1">
         <v>0</v>
@@ -11738,7 +11741,7 @@
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="2">
-        <v>-32</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>13.5994</v>
@@ -11768,10 +11771,10 @@
         <v>192123.6925</v>
       </c>
       <c r="K16" s="1">
-        <v>117514.4419</v>
+        <v>117516.4621</v>
       </c>
       <c r="L16" s="1">
-        <v>9.862500000000001</v>
+        <v>9.8627</v>
       </c>
       <c r="M16" s="1">
         <v>0.5</v>
@@ -11791,7 +11794,7 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="2">
-        <v>-31</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>14.6663</v>
@@ -11821,10 +11824,10 @@
         <v>220114.2843</v>
       </c>
       <c r="K17" s="1">
-        <v>116764.4798</v>
+        <v>116769.494</v>
       </c>
       <c r="L17" s="1">
-        <v>9.8451</v>
+        <v>9.845499999999999</v>
       </c>
       <c r="M17" s="1">
         <v>0</v>
@@ -11844,7 +11847,7 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="2">
-        <v>-30</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>14.701</v>
@@ -11874,10 +11877,10 @@
         <v>230522.2382</v>
       </c>
       <c r="K18" s="1">
-        <v>115741.3456</v>
+        <v>115750.4466</v>
       </c>
       <c r="L18" s="1">
-        <v>9.8164</v>
+        <v>9.8172</v>
       </c>
       <c r="M18" s="1">
         <v>0</v>
@@ -11897,7 +11900,7 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="2">
-        <v>-29</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>13.8109</v>
@@ -11927,10 +11930,10 @@
         <v>229317.99</v>
       </c>
       <c r="K19" s="1">
-        <v>127104.6143</v>
+        <v>127113.7153</v>
       </c>
       <c r="L19" s="1">
-        <v>10.1182</v>
+        <v>10.1189</v>
       </c>
       <c r="M19" s="1">
         <v>1</v>
@@ -11950,7 +11953,7 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="2">
-        <v>-28</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>13.9322</v>
@@ -11980,10 +11983,10 @@
         <v>252253.4191</v>
       </c>
       <c r="K20" s="1">
-        <v>150198.7564</v>
+        <v>150207.8574</v>
       </c>
       <c r="L20" s="1">
-        <v>10.5545</v>
+        <v>10.5551</v>
       </c>
       <c r="M20" s="1">
         <v>0</v>
@@ -12003,7 +12006,7 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="2">
-        <v>-27</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>12.5846</v>
@@ -12033,10 +12036,10 @@
         <v>242082.8895</v>
       </c>
       <c r="K21" s="1">
-        <v>160479.3964</v>
+        <v>160488.4974</v>
       </c>
       <c r="L21" s="1">
-        <v>10.722</v>
+        <v>10.7227</v>
       </c>
       <c r="M21" s="1">
         <v>0</v>
@@ -12056,7 +12059,7 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="2">
-        <v>-26</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>12.2867</v>
@@ -12086,10 +12089,10 @@
         <v>246741.3995</v>
       </c>
       <c r="K22" s="1">
-        <v>192819.1812</v>
+        <v>192828.2822</v>
       </c>
       <c r="L22" s="1">
-        <v>10.9982</v>
+        <v>10.9987</v>
       </c>
       <c r="M22" s="1">
         <v>0.5</v>
@@ -12109,7 +12112,7 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="2">
-        <v>-25</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>13.0645</v>
@@ -12139,10 +12142,10 @@
         <v>279273.3559</v>
       </c>
       <c r="K23" s="1">
-        <v>210303.1849</v>
+        <v>210312.2858</v>
       </c>
       <c r="L23" s="1">
-        <v>11.0966</v>
+        <v>11.0971</v>
       </c>
       <c r="M23" s="1">
         <v>0</v>
@@ -12162,7 +12165,7 @@
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="2">
-        <v>-24</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>13.8083</v>
@@ -12192,10 +12195,10 @@
         <v>303205.4781</v>
       </c>
       <c r="K24" s="1">
-        <v>207905.0463</v>
+        <v>207923.7283</v>
       </c>
       <c r="L24" s="1">
-        <v>11.0771</v>
+        <v>11.0781</v>
       </c>
       <c r="M24" s="1">
         <v>0</v>
@@ -12215,7 +12218,7 @@
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="2">
-        <v>-23</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>13.5636</v>
@@ -12245,10 +12248,10 @@
         <v>308648.4375</v>
       </c>
       <c r="K25" s="1">
-        <v>206414.1237</v>
+        <v>206438.7647</v>
       </c>
       <c r="L25" s="1">
-        <v>11.0612</v>
+        <v>11.0625</v>
       </c>
       <c r="M25" s="1">
         <v>0.5</v>
@@ -12268,7 +12271,7 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="2">
-        <v>-22</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>13.1788</v>
@@ -12298,10 +12301,10 @@
         <v>319323.4662</v>
       </c>
       <c r="K26" s="1">
-        <v>223611.504</v>
+        <v>223636.145</v>
       </c>
       <c r="L26" s="1">
-        <v>11.2218</v>
+        <v>11.2231</v>
       </c>
       <c r="M26" s="1">
         <v>0</v>
@@ -12321,7 +12324,7 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="2">
-        <v>-21</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>14.5668</v>
@@ -12351,10 +12354,10 @@
         <v>358989.421</v>
       </c>
       <c r="K27" s="1">
-        <v>244044.3063</v>
+        <v>244068.9473</v>
       </c>
       <c r="L27" s="1">
-        <v>11.3647</v>
+        <v>11.3659</v>
       </c>
       <c r="M27" s="1">
         <v>0</v>
@@ -12374,7 +12377,7 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="2">
-        <v>-20</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>13.962</v>
@@ -12404,10 +12407,10 @@
         <v>356730.4865</v>
       </c>
       <c r="K28" s="1">
-        <v>227053.1053</v>
+        <v>227145.6133</v>
       </c>
       <c r="L28" s="1">
-        <v>11.1795</v>
+        <v>11.1841</v>
       </c>
       <c r="M28" s="1">
         <v>0.5</v>
@@ -12427,7 +12430,7 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="2">
-        <v>-19</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>12.2659</v>
@@ -12457,10 +12460,10 @@
         <v>338327.8147</v>
       </c>
       <c r="K29" s="1">
-        <v>252365.745</v>
+        <v>252458.253</v>
       </c>
       <c r="L29" s="1">
-        <v>11.4094</v>
+        <v>11.4136</v>
       </c>
       <c r="M29" s="1">
         <v>0</v>
@@ -12480,7 +12483,7 @@
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="2">
-        <v>-18</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>12.4103</v>
@@ -12510,10 +12513,10 @@
         <v>351907.2541</v>
       </c>
       <c r="K30" s="1">
-        <v>303091.3749</v>
+        <v>303183.8829</v>
       </c>
       <c r="L30" s="1">
-        <v>11.548</v>
+        <v>11.5515</v>
       </c>
       <c r="M30" s="1">
         <v>0</v>
@@ -12533,7 +12536,7 @@
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="2">
-        <v>-17</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>12.3976</v>
@@ -12563,10 +12566,10 @@
         <v>361526.4127</v>
       </c>
       <c r="K31" s="1">
-        <v>312560.0421</v>
+        <v>312652.5501</v>
       </c>
       <c r="L31" s="1">
-        <v>11.573</v>
+        <v>11.5764</v>
       </c>
       <c r="M31" s="1">
         <v>0.5</v>
@@ -12586,7 +12589,7 @@
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="2">
-        <v>-16</v>
+        <v>30</v>
       </c>
       <c r="B32" s="1">
         <v>12.9013</v>
@@ -12616,10 +12619,10 @@
         <v>397757.914</v>
       </c>
       <c r="K32" s="1">
-        <v>326302.9512</v>
+        <v>326395.4592</v>
       </c>
       <c r="L32" s="1">
-        <v>11.6064</v>
+        <v>11.6097</v>
       </c>
       <c r="M32" s="1">
         <v>0</v>
@@ -12639,7 +12642,7 @@
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="2">
-        <v>-15</v>
+        <v>31</v>
       </c>
       <c r="B33" s="1">
         <v>13.3527</v>
@@ -12669,10 +12672,10 @@
         <v>420400.3741</v>
       </c>
       <c r="K33" s="1">
-        <v>325645.9041</v>
+        <v>325741.0399</v>
       </c>
       <c r="L33" s="1">
-        <v>11.604</v>
+        <v>11.6074</v>
       </c>
       <c r="M33" s="1">
         <v>0</v>
@@ -12692,7 +12695,7 @@
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="2">
-        <v>-14</v>
+        <v>32</v>
       </c>
       <c r="B34" s="1">
         <v>13.8804</v>
@@ -12722,10 +12725,10 @@
         <v>445212.9077</v>
       </c>
       <c r="K34" s="1">
-        <v>326620.6155</v>
+        <v>326715.7513</v>
       </c>
       <c r="L34" s="1">
-        <v>11.6086</v>
+        <v>11.612</v>
       </c>
       <c r="M34" s="1">
         <v>0.5</v>
@@ -12745,7 +12748,7 @@
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="2">
-        <v>-13</v>
+        <v>33</v>
       </c>
       <c r="B35" s="1">
         <v>14.6268</v>
@@ -12775,10 +12778,10 @@
         <v>488778.0733</v>
       </c>
       <c r="K35" s="1">
-        <v>325549.3085</v>
+        <v>325648.7269</v>
       </c>
       <c r="L35" s="1">
-        <v>11.6023</v>
+        <v>11.6059</v>
       </c>
       <c r="M35" s="1">
         <v>0</v>
@@ -12798,7 +12801,7 @@
     </row>
     <row r="36" spans="1:17">
       <c r="A36" s="2">
-        <v>-12</v>
+        <v>34</v>
       </c>
       <c r="B36" s="1">
         <v>15.3636</v>
@@ -12828,10 +12831,10 @@
         <v>519056.397</v>
       </c>
       <c r="K36" s="1">
-        <v>318504.1344</v>
+        <v>318631.6738</v>
       </c>
       <c r="L36" s="1">
-        <v>11.5491</v>
+        <v>11.5537</v>
       </c>
       <c r="M36" s="1">
         <v>0</v>
@@ -12851,7 +12854,7 @@
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="2">
-        <v>-11</v>
+        <v>35</v>
       </c>
       <c r="B37" s="1">
         <v>13.8711</v>
@@ -12881,10 +12884,10 @@
         <v>488585.9182</v>
       </c>
       <c r="K37" s="1">
-        <v>312226.5017</v>
+        <v>312379.1199</v>
       </c>
       <c r="L37" s="1">
-        <v>11.4914</v>
+        <v>11.497</v>
       </c>
       <c r="M37" s="1">
         <v>0.5</v>
@@ -12904,7 +12907,7 @@
     </row>
     <row r="38" spans="1:17">
       <c r="A38" s="2">
-        <v>-10</v>
+        <v>36</v>
       </c>
       <c r="B38" s="1">
         <v>14.1252</v>
@@ -12934,10 +12937,10 @@
         <v>518484.9431</v>
       </c>
       <c r="K38" s="1">
-        <v>367082.053</v>
+        <v>367234.6712</v>
       </c>
       <c r="L38" s="1">
-        <v>11.7967</v>
+        <v>11.8016</v>
       </c>
       <c r="M38" s="1">
         <v>0</v>
@@ -12957,7 +12960,7 @@
     </row>
     <row r="39" spans="1:17">
       <c r="A39" s="2">
-        <v>-9</v>
+        <v>37</v>
       </c>
       <c r="B39" s="1">
         <v>14.1934</v>
@@ -12987,10 +12990,10 @@
         <v>530606.1516</v>
       </c>
       <c r="K39" s="1">
-        <v>373524.1181</v>
+        <v>373676.7363</v>
       </c>
       <c r="L39" s="1">
-        <v>11.8307</v>
+        <v>11.8355</v>
       </c>
       <c r="M39" s="1">
         <v>0</v>
@@ -13010,7 +13013,7 @@
     </row>
     <row r="40" spans="1:17">
       <c r="A40" s="2">
-        <v>-8</v>
+        <v>38</v>
       </c>
       <c r="B40" s="1">
         <v>14.1176</v>
@@ -13040,10 +13043,10 @@
         <v>538104.2726</v>
       </c>
       <c r="K40" s="1">
-        <v>385877.2949</v>
+        <v>386029.9131</v>
       </c>
       <c r="L40" s="1">
-        <v>11.8947</v>
+        <v>11.8994</v>
       </c>
       <c r="M40" s="1">
         <v>0.5</v>
@@ -13063,7 +13066,7 @@
     </row>
     <row r="41" spans="1:17">
       <c r="A41" s="2">
-        <v>-7</v>
+        <v>39</v>
       </c>
       <c r="B41" s="1">
         <v>15.3311</v>
@@ -13093,10 +13096,10 @@
         <v>603385.7443</v>
       </c>
       <c r="K41" s="1">
-        <v>402993.473</v>
+        <v>403146.0912</v>
       </c>
       <c r="L41" s="1">
-        <v>11.9757</v>
+        <v>11.9802</v>
       </c>
       <c r="M41" s="1">
         <v>0</v>
@@ -13116,7 +13119,7 @@
     </row>
     <row r="42" spans="1:17">
       <c r="A42" s="2">
-        <v>-6</v>
+        <v>40</v>
       </c>
       <c r="B42" s="1">
         <v>15.3637</v>
@@ -13146,10 +13149,10 @@
         <v>614427.3483</v>
       </c>
       <c r="K42" s="1">
-        <v>376878.9498</v>
+        <v>377135.9459</v>
       </c>
       <c r="L42" s="1">
-        <v>11.7955</v>
+        <v>11.8036</v>
       </c>
       <c r="M42" s="1">
         <v>0</v>
@@ -13169,7 +13172,7 @@
     </row>
     <row r="43" spans="1:17">
       <c r="A43" s="2">
-        <v>-5</v>
+        <v>41</v>
       </c>
       <c r="B43" s="1">
         <v>14.6447</v>
@@ -13199,10 +13202,10 @@
         <v>600795.6850000001</v>
       </c>
       <c r="K43" s="1">
-        <v>390781.523</v>
+        <v>391038.5191</v>
       </c>
       <c r="L43" s="1">
-        <v>11.8944</v>
+        <v>11.9023</v>
       </c>
       <c r="M43" s="1">
         <v>1</v>
@@ -13222,7 +13225,7 @@
     </row>
     <row r="44" spans="1:17">
       <c r="A44" s="2">
-        <v>-4</v>
+        <v>42</v>
       </c>
       <c r="B44" s="1">
         <v>15.486</v>
@@ -13252,10 +13255,10 @@
         <v>670012.1182</v>
       </c>
       <c r="K44" s="1">
-        <v>429549.9904</v>
+        <v>429806.9865</v>
       </c>
       <c r="L44" s="1">
-        <v>12.1013</v>
+        <v>12.1086</v>
       </c>
       <c r="M44" s="1">
         <v>0</v>
@@ -13275,7 +13278,7 @@
     </row>
     <row r="45" spans="1:17">
       <c r="A45" s="2">
-        <v>-3</v>
+        <v>43</v>
       </c>
       <c r="B45" s="1">
         <v>16.1958</v>
@@ -13305,10 +13308,10 @@
         <v>704487.684</v>
       </c>
       <c r="K45" s="1">
-        <v>414876.7239</v>
+        <v>415192.3487</v>
       </c>
       <c r="L45" s="1">
-        <v>12.0078</v>
+        <v>12.017</v>
       </c>
       <c r="M45" s="1">
         <v>0</v>
@@ -13328,7 +13331,7 @@
     </row>
     <row r="46" spans="1:17">
       <c r="A46" s="2">
-        <v>-2</v>
+        <v>44</v>
       </c>
       <c r="B46" s="1">
         <v>16.4264</v>
@@ -13358,10 +13361,10 @@
         <v>722311.094</v>
       </c>
       <c r="K46" s="1">
-        <v>405704.3101</v>
+        <v>406056.5609</v>
       </c>
       <c r="L46" s="1">
-        <v>11.9377</v>
+        <v>11.948</v>
       </c>
       <c r="M46" s="1">
         <v>0.75</v>
@@ -13381,7 +13384,7 @@
     </row>
     <row r="47" spans="1:17">
       <c r="A47" s="2">
-        <v>-1</v>
+        <v>45</v>
       </c>
       <c r="B47" s="1">
         <v>17.107</v>
@@ -13411,10 +13414,10 @@
         <v>778620.9782</v>
       </c>
       <c r="K47" s="1">
-        <v>413404.8137</v>
+        <v>413757.0644</v>
       </c>
       <c r="L47" s="1">
-        <v>11.9991</v>
+        <v>12.0093</v>
       </c>
       <c r="M47" s="1">
         <v>0</v>
@@ -13434,7 +13437,7 @@
     </row>
     <row r="48" spans="1:17">
       <c r="A48" s="2">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="B48" s="1">
         <v>16.8894</v>
@@ -13464,10 +13467,10 @@
         <v>781236.3861999999</v>
       </c>
       <c r="K48" s="1">
-        <v>405621.2541</v>
+        <v>406004.6095</v>
       </c>
       <c r="L48" s="1">
-        <v>11.9304</v>
+        <v>11.9416</v>
       </c>
       <c r="M48" s="1">
         <v>1</v>
@@ -13487,7 +13490,7 @@
     </row>
     <row r="49" spans="1:17">
       <c r="A49" s="2">
-        <v>1</v>
+        <v>47</v>
       </c>
       <c r="B49" s="1">
         <v>16.4004</v>
@@ -13517,10 +13520,10 @@
         <v>804479.6221</v>
       </c>
       <c r="K49" s="1">
-        <v>428903.4358</v>
+        <v>429286.7912</v>
       </c>
       <c r="L49" s="1">
-        <v>12.1245</v>
+        <v>12.1354</v>
       </c>
       <c r="M49" s="1">
         <v>0</v>
@@ -13540,7 +13543,7 @@
     </row>
     <row r="50" spans="1:17">
       <c r="A50" s="2">
-        <v>2</v>
+        <v>48</v>
       </c>
       <c r="B50" s="1">
         <v>15.3877</v>
@@ -13570,10 +13573,10 @@
         <v>776541.2674</v>
       </c>
       <c r="K50" s="1">
-        <v>462262.3398</v>
+        <v>462645.6952</v>
       </c>
       <c r="L50" s="1">
-        <v>12.3584</v>
+        <v>12.3686</v>
       </c>
       <c r="M50" s="1">
         <v>0</v>
@@ -13593,7 +13596,7 @@
     </row>
     <row r="51" spans="1:17">
       <c r="A51" s="2">
-        <v>3</v>
+        <v>49</v>
       </c>
       <c r="B51" s="1">
         <v>14.6367</v>
@@ -13623,10 +13626,10 @@
         <v>755658.1466</v>
       </c>
       <c r="K51" s="1">
-        <v>516405.9015</v>
+        <v>516789.2569</v>
       </c>
       <c r="L51" s="1">
-        <v>12.621</v>
+        <v>12.6304</v>
       </c>
       <c r="M51" s="1">
         <v>0</v>
@@ -13646,7 +13649,7 @@
     </row>
     <row r="52" spans="1:17">
       <c r="A52" s="2">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="B52" s="1">
         <v>13.0061</v>
@@ -13676,10 +13679,10 @@
         <v>693656.24</v>
       </c>
       <c r="K52" s="1">
-        <v>563544.5401</v>
+        <v>563927.8955</v>
       </c>
       <c r="L52" s="1">
-        <v>12.77</v>
+        <v>12.7786</v>
       </c>
       <c r="M52" s="1">
         <v>0.5</v>
@@ -13699,7 +13702,7 @@
     </row>
     <row r="53" spans="1:17">
       <c r="A53" s="2">
-        <v>5</v>
+        <v>51</v>
       </c>
       <c r="B53" s="1">
         <v>13.835</v>
@@ -13729,10 +13732,10 @@
         <v>765290.1039</v>
       </c>
       <c r="K53" s="1">
-        <v>652158.6768</v>
+        <v>652542.0322</v>
       </c>
       <c r="L53" s="1">
-        <v>12.805</v>
+        <v>12.8125</v>
       </c>
       <c r="M53" s="1">
         <v>0</v>
@@ -13752,7 +13755,7 @@
     </row>
     <row r="54" spans="1:17">
       <c r="A54" s="2">
-        <v>6</v>
+        <v>52</v>
       </c>
       <c r="B54" s="1">
         <v>14.4216</v>
@@ -13782,10 +13785,10 @@
         <v>804027.5734</v>
       </c>
       <c r="K54" s="1">
-        <v>626537.6671</v>
+        <v>627023.4127</v>
       </c>
       <c r="L54" s="1">
-        <v>12.7651</v>
+        <v>12.775</v>
       </c>
       <c r="M54" s="1">
         <v>0</v>
@@ -13805,7 +13808,7 @@
     </row>
     <row r="55" spans="1:17">
       <c r="A55" s="2">
-        <v>7</v>
+        <v>53</v>
       </c>
       <c r="B55" s="1">
         <v>13.2404</v>
@@ -13835,10 +13838,10 @@
         <v>757144.5664</v>
       </c>
       <c r="K55" s="1">
-        <v>614529.1374</v>
+        <v>615062.8323</v>
       </c>
       <c r="L55" s="1">
-        <v>12.7361</v>
+        <v>12.7472</v>
       </c>
       <c r="M55" s="1">
         <v>0.4</v>
@@ -13858,7 +13861,7 @@
     </row>
     <row r="56" spans="1:17">
       <c r="A56" s="2">
-        <v>8</v>
+        <v>54</v>
       </c>
       <c r="B56" s="1">
         <v>12.382</v>
@@ -13888,10 +13891,10 @@
         <v>738095.731</v>
       </c>
       <c r="K56" s="1">
-        <v>688652.92</v>
+        <v>689186.6149</v>
       </c>
       <c r="L56" s="1">
-        <v>12.7912</v>
+        <v>12.8011</v>
       </c>
       <c r="M56" s="1">
         <v>0</v>
@@ -13911,7 +13914,7 @@
     </row>
     <row r="57" spans="1:17">
       <c r="A57" s="2">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="B57" s="1">
         <v>11.9583</v>
@@ -13941,10 +13944,10 @@
         <v>722915.5322</v>
       </c>
       <c r="K57" s="1">
-        <v>752143.8978</v>
+        <v>752677.5927</v>
       </c>
       <c r="L57" s="1">
-        <v>12.7578</v>
+        <v>12.7669</v>
       </c>
       <c r="M57" s="1">
         <v>0</v>
@@ -13964,7 +13967,7 @@
     </row>
     <row r="58" spans="1:17">
       <c r="A58" s="2">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="B58" s="1">
         <v>12.2036</v>
@@ -13994,10 +13997,10 @@
         <v>747829.5912</v>
       </c>
       <c r="K58" s="1">
-        <v>781461.2306</v>
+        <v>781994.9255</v>
       </c>
       <c r="L58" s="1">
-        <v>12.7269</v>
+        <v>12.7356</v>
       </c>
       <c r="M58" s="1">
         <v>0.4</v>
@@ -14017,7 +14020,7 @@
     </row>
     <row r="59" spans="1:17">
       <c r="A59" s="2">
-        <v>11</v>
+        <v>57</v>
       </c>
       <c r="B59" s="1">
         <v>12.9136</v>
@@ -14047,10 +14050,10 @@
         <v>823983.47</v>
       </c>
       <c r="K59" s="1">
-        <v>791461.2306</v>
+        <v>791994.9255</v>
       </c>
       <c r="L59" s="1">
-        <v>12.7204</v>
+        <v>12.7289</v>
       </c>
       <c r="M59" s="1">
         <v>0</v>
@@ -14070,7 +14073,7 @@
     </row>
     <row r="60" spans="1:17">
       <c r="A60" s="2">
-        <v>12</v>
+        <v>58</v>
       </c>
       <c r="B60" s="1">
         <v>13.4338</v>
@@ -14100,10 +14103,10 @@
         <v>865436.8988</v>
       </c>
       <c r="K60" s="1">
-        <v>770398.9922</v>
+        <v>771016.8417</v>
       </c>
       <c r="L60" s="1">
-        <v>12.7145</v>
+        <v>12.7247</v>
       </c>
       <c r="M60" s="1">
         <v>0</v>
@@ -14123,7 +14126,7 @@
     </row>
     <row r="61" spans="1:17">
       <c r="A61" s="2">
-        <v>13</v>
+        <v>59</v>
       </c>
       <c r="B61" s="1">
         <v>12.9657</v>
@@ -14153,10 +14156,10 @@
         <v>847609.6415</v>
       </c>
       <c r="K61" s="1">
-        <v>756699.8162999999</v>
+        <v>757372.4188</v>
       </c>
       <c r="L61" s="1">
-        <v>12.7017</v>
+        <v>12.713</v>
       </c>
       <c r="M61" s="1">
         <v>0.3</v>
@@ -14176,7 +14179,7 @@
     </row>
     <row r="62" spans="1:17">
       <c r="A62" s="2">
-        <v>14</v>
+        <v>60</v>
       </c>
       <c r="B62" s="1">
         <v>13.3568</v>
@@ -14206,10 +14209,10 @@
         <v>898144.8267</v>
       </c>
       <c r="K62" s="1">
-        <v>802697.9255</v>
+        <v>803370.528</v>
       </c>
       <c r="L62" s="1">
-        <v>12.718</v>
+        <v>12.7287</v>
       </c>
       <c r="M62" s="1">
         <v>0</v>
@@ -14314,7 +14317,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>-46</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>8.9413</v>
@@ -14361,7 +14364,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>-45</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>8.9801</v>
@@ -14414,7 +14417,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>-44</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>8.6477</v>
@@ -14467,7 +14470,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>-43</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>9.568899999999999</v>
@@ -14520,7 +14523,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>-42</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>9.429399999999999</v>
@@ -14573,7 +14576,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>-41</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>9.603999999999999</v>
@@ -14626,7 +14629,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>-40</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>10.3595</v>
@@ -14679,7 +14682,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>-39</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>10.0875</v>
@@ -14732,7 +14735,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>-38</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>10.1692</v>
@@ -14785,7 +14788,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>-37</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>11.0872</v>
@@ -14838,7 +14841,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>-36</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>11.0976</v>
@@ -14891,7 +14894,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>-35</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>10.8505</v>
@@ -14944,7 +14947,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>-34</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>11.8576</v>
@@ -14997,7 +15000,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="2">
-        <v>-33</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>12.5699</v>
@@ -15027,7 +15030,7 @@
         <v>170787.9728</v>
       </c>
       <c r="K15" s="1">
-        <v>118216.3855</v>
+        <v>118216.9809</v>
       </c>
       <c r="L15" s="1">
         <v>9.8264</v>
@@ -15050,7 +15053,7 @@
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="2">
-        <v>-32</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>13.5994</v>
@@ -15080,7 +15083,7 @@
         <v>193427.2337</v>
       </c>
       <c r="K16" s="1">
-        <v>121813.7603</v>
+        <v>121814.3556</v>
       </c>
       <c r="L16" s="1">
         <v>9.890599999999999</v>
@@ -15103,7 +15106,7 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="2">
-        <v>-31</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>14.6663</v>
@@ -15133,10 +15136,10 @@
         <v>222057.3934</v>
       </c>
       <c r="K17" s="1">
-        <v>121476.3431</v>
+        <v>121478.2855</v>
       </c>
       <c r="L17" s="1">
-        <v>9.882999999999999</v>
+        <v>9.8832</v>
       </c>
       <c r="M17" s="1">
         <v>0</v>
@@ -15156,7 +15159,7 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="2">
-        <v>-30</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>14.701</v>
@@ -15186,10 +15189,10 @@
         <v>232481.2918</v>
       </c>
       <c r="K18" s="1">
-        <v>120888.4297</v>
+        <v>120892.7204</v>
       </c>
       <c r="L18" s="1">
-        <v>9.8673</v>
+        <v>9.867699999999999</v>
       </c>
       <c r="M18" s="1">
         <v>0</v>
@@ -15209,7 +15212,7 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="2">
-        <v>-29</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>13.8109</v>
@@ -15239,10 +15242,10 @@
         <v>230806.4843</v>
       </c>
       <c r="K19" s="1">
-        <v>133203.6293</v>
+        <v>133207.92</v>
       </c>
       <c r="L19" s="1">
-        <v>10.178</v>
+        <v>10.1783</v>
       </c>
       <c r="M19" s="1">
         <v>1</v>
@@ -15262,7 +15265,7 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="2">
-        <v>-28</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>13.9322</v>
@@ -15292,10 +15295,10 @@
         <v>254285.5616</v>
       </c>
       <c r="K20" s="1">
-        <v>157807.7172</v>
+        <v>157812.0079</v>
       </c>
       <c r="L20" s="1">
-        <v>10.6158</v>
+        <v>10.6161</v>
       </c>
       <c r="M20" s="1">
         <v>0</v>
@@ -15315,7 +15318,7 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="2">
-        <v>-27</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>12.5846</v>
@@ -15345,10 +15348,10 @@
         <v>243157.3375</v>
       </c>
       <c r="K21" s="1">
-        <v>169127.6617</v>
+        <v>169131.9524</v>
       </c>
       <c r="L21" s="1">
-        <v>10.7888</v>
+        <v>10.7891</v>
       </c>
       <c r="M21" s="1">
         <v>0</v>
@@ -15368,7 +15371,7 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="2">
-        <v>-26</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>12.2867</v>
@@ -15398,10 +15401,10 @@
         <v>247545.7615</v>
       </c>
       <c r="K22" s="1">
-        <v>203618.0004</v>
+        <v>203622.2911</v>
       </c>
       <c r="L22" s="1">
-        <v>11.0593</v>
+        <v>11.0596</v>
       </c>
       <c r="M22" s="1">
         <v>0.5</v>
@@ -15421,7 +15424,7 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="2">
-        <v>-25</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>13.0645</v>
@@ -15451,10 +15454,10 @@
         <v>281246.9245</v>
       </c>
       <c r="K23" s="1">
-        <v>222636.2756</v>
+        <v>222640.5663</v>
       </c>
       <c r="L23" s="1">
-        <v>11.1562</v>
+        <v>11.1564</v>
       </c>
       <c r="M23" s="1">
         <v>0</v>
@@ -15474,7 +15477,7 @@
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="2">
-        <v>-24</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>13.8083</v>
@@ -15504,10 +15507,10 @@
         <v>305956.7321</v>
       </c>
       <c r="K24" s="1">
-        <v>220807.5305</v>
+        <v>220819.1275</v>
       </c>
       <c r="L24" s="1">
-        <v>11.1426</v>
+        <v>11.1432</v>
       </c>
       <c r="M24" s="1">
         <v>0</v>
@@ -15527,7 +15530,7 @@
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="2">
-        <v>-23</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>13.5636</v>
@@ -15557,10 +15560,10 @@
         <v>311132.3182</v>
       </c>
       <c r="K25" s="1">
-        <v>219970.0125</v>
+        <v>219984.9568</v>
       </c>
       <c r="L25" s="1">
-        <v>11.1343</v>
+        <v>11.1351</v>
       </c>
       <c r="M25" s="1">
         <v>0.5</v>
@@ -15580,7 +15583,7 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="2">
-        <v>-22</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>13.1788</v>
@@ -15610,10 +15613,10 @@
         <v>321821.8681</v>
       </c>
       <c r="K26" s="1">
-        <v>238954.0458</v>
+        <v>238968.9901</v>
       </c>
       <c r="L26" s="1">
-        <v>11.2966</v>
+        <v>11.2973</v>
       </c>
       <c r="M26" s="1">
         <v>0</v>
@@ -15633,7 +15636,7 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="2">
-        <v>-21</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>14.5668</v>
@@ -15663,10 +15666,10 @@
         <v>363396.2803</v>
       </c>
       <c r="K27" s="1">
-        <v>261463.8777</v>
+        <v>261478.822</v>
       </c>
       <c r="L27" s="1">
-        <v>11.4389</v>
+        <v>11.4395</v>
       </c>
       <c r="M27" s="1">
         <v>0</v>
@@ -15686,7 +15689,7 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="2">
-        <v>-20</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>13.962</v>
@@ -15716,10 +15719,10 @@
         <v>360311.7954</v>
       </c>
       <c r="K28" s="1">
-        <v>244240.1192</v>
+        <v>244323.8594</v>
       </c>
       <c r="L28" s="1">
-        <v>11.267</v>
+        <v>11.2709</v>
       </c>
       <c r="M28" s="1">
         <v>0.5</v>
@@ -15739,7 +15742,7 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="2">
-        <v>-19</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>12.2659</v>
@@ -15769,10 +15772,10 @@
         <v>339883.1827</v>
       </c>
       <c r="K29" s="1">
-        <v>272163.2723</v>
+        <v>272247.0126</v>
       </c>
       <c r="L29" s="1">
-        <v>11.4966</v>
+        <v>11.5001</v>
       </c>
       <c r="M29" s="1">
         <v>0</v>
@@ -15792,7 +15795,7 @@
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="2">
-        <v>-18</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>12.4103</v>
@@ -15822,10 +15825,10 @@
         <v>353721.4965</v>
       </c>
       <c r="K30" s="1">
-        <v>327403.8322</v>
+        <v>327487.5725</v>
       </c>
       <c r="L30" s="1">
-        <v>11.6233</v>
+        <v>11.6263</v>
       </c>
       <c r="M30" s="1">
         <v>0</v>
@@ -15845,7 +15848,7 @@
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="2">
-        <v>-17</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>12.3976</v>
@@ -15875,10 +15878,10 @@
         <v>363307.7738</v>
       </c>
       <c r="K31" s="1">
-        <v>338561.6513</v>
+        <v>338645.3915</v>
       </c>
       <c r="L31" s="1">
-        <v>11.6484</v>
+        <v>11.6512</v>
       </c>
       <c r="M31" s="1">
         <v>0.5</v>
@@ -15898,7 +15901,7 @@
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="2">
-        <v>-16</v>
+        <v>30</v>
       </c>
       <c r="B32" s="1">
         <v>12.9013</v>
@@ -15928,10 +15931,10 @@
         <v>401497.519</v>
       </c>
       <c r="K32" s="1">
-        <v>352251.5446</v>
+        <v>352335.2849</v>
       </c>
       <c r="L32" s="1">
-        <v>11.6766</v>
+        <v>11.6794</v>
       </c>
       <c r="M32" s="1">
         <v>0</v>
@@ -15951,7 +15954,7 @@
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="2">
-        <v>-15</v>
+        <v>31</v>
       </c>
       <c r="B33" s="1">
         <v>13.3527</v>
@@ -15981,10 +15984,10 @@
         <v>425168.3702</v>
       </c>
       <c r="K33" s="1">
-        <v>354861.4183</v>
+        <v>354945.1585</v>
       </c>
       <c r="L33" s="1">
-        <v>11.6849</v>
+        <v>11.6877</v>
       </c>
       <c r="M33" s="1">
         <v>0</v>
@@ -16004,7 +16007,7 @@
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="2">
-        <v>-14</v>
+        <v>32</v>
       </c>
       <c r="B34" s="1">
         <v>13.8804</v>
@@ -16034,10 +16037,10 @@
         <v>451238.2848</v>
       </c>
       <c r="K34" s="1">
-        <v>357054.1616</v>
+        <v>357137.9018</v>
       </c>
       <c r="L34" s="1">
-        <v>11.694</v>
+        <v>11.6968</v>
       </c>
       <c r="M34" s="1">
         <v>0.5</v>
@@ -16057,7 +16060,7 @@
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="2">
-        <v>-13</v>
+        <v>33</v>
       </c>
       <c r="B35" s="1">
         <v>14.6268</v>
@@ -16087,10 +16090,10 @@
         <v>497726.4531</v>
       </c>
       <c r="K35" s="1">
-        <v>357078.8207</v>
+        <v>357162.561</v>
       </c>
       <c r="L35" s="1">
-        <v>11.6942</v>
+        <v>11.6969</v>
       </c>
       <c r="M35" s="1">
         <v>0</v>
@@ -16110,7 +16113,7 @@
     </row>
     <row r="36" spans="1:17">
       <c r="A36" s="2">
-        <v>-12</v>
+        <v>34</v>
       </c>
       <c r="B36" s="1">
         <v>15.3636</v>
@@ -16140,10 +16143,10 @@
         <v>529856.1197</v>
       </c>
       <c r="K36" s="1">
-        <v>350649.5373</v>
+        <v>350758.9401</v>
       </c>
       <c r="L36" s="1">
-        <v>11.651</v>
+        <v>11.6546</v>
       </c>
       <c r="M36" s="1">
         <v>0</v>
@@ -16163,7 +16166,7 @@
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="2">
-        <v>-11</v>
+        <v>35</v>
       </c>
       <c r="B37" s="1">
         <v>13.8711</v>
@@ -16193,10 +16196,10 @@
         <v>495566.1192</v>
       </c>
       <c r="K37" s="1">
-        <v>345087.6147</v>
+        <v>345219.2372</v>
       </c>
       <c r="L37" s="1">
-        <v>11.6055</v>
+        <v>11.6099</v>
       </c>
       <c r="M37" s="1">
         <v>0.5</v>
@@ -16216,7 +16219,7 @@
     </row>
     <row r="38" spans="1:17">
       <c r="A38" s="2">
-        <v>-10</v>
+        <v>36</v>
       </c>
       <c r="B38" s="1">
         <v>14.1252</v>
@@ -16246,10 +16249,10 @@
         <v>527362.2895</v>
       </c>
       <c r="K38" s="1">
-        <v>406461.5019</v>
+        <v>406593.1243</v>
       </c>
       <c r="L38" s="1">
-        <v>11.902</v>
+        <v>11.9059</v>
       </c>
       <c r="M38" s="1">
         <v>0</v>
@@ -16269,7 +16272,7 @@
     </row>
     <row r="39" spans="1:17">
       <c r="A39" s="2">
-        <v>-9</v>
+        <v>37</v>
       </c>
       <c r="B39" s="1">
         <v>14.1934</v>
@@ -16299,10 +16302,10 @@
         <v>539691.4044</v>
       </c>
       <c r="K39" s="1">
-        <v>414926.1086</v>
+        <v>415057.731</v>
       </c>
       <c r="L39" s="1">
-        <v>11.9408</v>
+        <v>11.9446</v>
       </c>
       <c r="M39" s="1">
         <v>0</v>
@@ -16322,7 +16325,7 @@
     </row>
     <row r="40" spans="1:17">
       <c r="A40" s="2">
-        <v>-8</v>
+        <v>38</v>
       </c>
       <c r="B40" s="1">
         <v>14.1176</v>
@@ -16352,10 +16355,10 @@
         <v>546924.3466</v>
       </c>
       <c r="K40" s="1">
-        <v>429971.0573</v>
+        <v>430102.6797</v>
       </c>
       <c r="L40" s="1">
-        <v>12.0082</v>
+        <v>12.0119</v>
       </c>
       <c r="M40" s="1">
         <v>0.5</v>
@@ -16375,7 +16378,7 @@
     </row>
     <row r="41" spans="1:17">
       <c r="A41" s="2">
-        <v>-7</v>
+        <v>39</v>
       </c>
       <c r="B41" s="1">
         <v>15.3311</v>
@@ -16405,10 +16408,10 @@
         <v>618063.5457</v>
       </c>
       <c r="K41" s="1">
-        <v>450367.4755</v>
+        <v>450499.0979</v>
       </c>
       <c r="L41" s="1">
-        <v>12.0909</v>
+        <v>12.0945</v>
       </c>
       <c r="M41" s="1">
         <v>0</v>
@@ -16428,7 +16431,7 @@
     </row>
     <row r="42" spans="1:17">
       <c r="A42" s="2">
-        <v>-6</v>
+        <v>40</v>
       </c>
       <c r="B42" s="1">
         <v>15.3637</v>
@@ -16458,10 +16461,10 @@
         <v>629219.8118</v>
       </c>
       <c r="K42" s="1">
-        <v>423022.5361</v>
+        <v>423263.4543</v>
       </c>
       <c r="L42" s="1">
-        <v>11.9268</v>
+        <v>11.9336</v>
       </c>
       <c r="M42" s="1">
         <v>0</v>
@@ -16481,7 +16484,7 @@
     </row>
     <row r="43" spans="1:17">
       <c r="A43" s="2">
-        <v>-5</v>
+        <v>41</v>
       </c>
       <c r="B43" s="1">
         <v>14.6447</v>
@@ -16511,10 +16514,10 @@
         <v>612904.7845</v>
       </c>
       <c r="K43" s="1">
-        <v>440074.5759</v>
+        <v>440315.4941</v>
       </c>
       <c r="L43" s="1">
-        <v>12.0318</v>
+        <v>12.0384</v>
       </c>
       <c r="M43" s="1">
         <v>1</v>
@@ -16534,7 +16537,7 @@
     </row>
     <row r="44" spans="1:17">
       <c r="A44" s="2">
-        <v>-4</v>
+        <v>42</v>
       </c>
       <c r="B44" s="1">
         <v>15.486</v>
@@ -16564,10 +16567,10 @@
         <v>688918.7601</v>
       </c>
       <c r="K44" s="1">
-        <v>484912.8279</v>
+        <v>485153.7461</v>
       </c>
       <c r="L44" s="1">
-        <v>12.2355</v>
+        <v>12.2416</v>
       </c>
       <c r="M44" s="1">
         <v>0</v>
@@ -16587,7 +16590,7 @@
     </row>
     <row r="45" spans="1:17">
       <c r="A45" s="2">
-        <v>-3</v>
+        <v>43</v>
       </c>
       <c r="B45" s="1">
         <v>16.1958</v>
@@ -16617,10 +16620,10 @@
         <v>726325.1945</v>
       </c>
       <c r="K45" s="1">
-        <v>470268.1089</v>
+        <v>470567.5418</v>
       </c>
       <c r="L45" s="1">
-        <v>12.1555</v>
+        <v>12.1632</v>
       </c>
       <c r="M45" s="1">
         <v>0</v>
@@ -16640,7 +16643,7 @@
     </row>
     <row r="46" spans="1:17">
       <c r="A46" s="2">
-        <v>-2</v>
+        <v>44</v>
       </c>
       <c r="B46" s="1">
         <v>16.4264</v>
@@ -16670,10 +16673,10 @@
         <v>745110.9558</v>
       </c>
       <c r="K46" s="1">
-        <v>461796.6458</v>
+        <v>462129.9056</v>
       </c>
       <c r="L46" s="1">
-        <v>12.0998</v>
+        <v>12.1085</v>
       </c>
       <c r="M46" s="1">
         <v>0.75</v>
@@ -16693,7 +16696,7 @@
     </row>
     <row r="47" spans="1:17">
       <c r="A47" s="2">
-        <v>-1</v>
+        <v>45</v>
       </c>
       <c r="B47" s="1">
         <v>17.107</v>
@@ -16723,10 +16726,10 @@
         <v>807186.7769000001</v>
       </c>
       <c r="K47" s="1">
-        <v>472306.1651</v>
+        <v>472639.425</v>
       </c>
       <c r="L47" s="1">
-        <v>12.1715</v>
+        <v>12.1801</v>
       </c>
       <c r="M47" s="1">
         <v>0</v>
@@ -16746,7 +16749,7 @@
     </row>
     <row r="48" spans="1:17">
       <c r="A48" s="2">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="B48" s="1">
         <v>16.8894</v>
@@ -16776,10 +16779,10 @@
         <v>808845.1695</v>
       </c>
       <c r="K48" s="1">
-        <v>465465.0832</v>
+        <v>465825.6813</v>
       </c>
       <c r="L48" s="1">
-        <v>12.1198</v>
+        <v>12.1292</v>
       </c>
       <c r="M48" s="1">
         <v>1</v>
@@ -16799,7 +16802,7 @@
     </row>
     <row r="49" spans="1:17">
       <c r="A49" s="2">
-        <v>1</v>
+        <v>47</v>
       </c>
       <c r="B49" s="1">
         <v>16.4004</v>
@@ -16829,10 +16832,10 @@
         <v>833739.3325</v>
       </c>
       <c r="K49" s="1">
-        <v>493754.957</v>
+        <v>494115.5552</v>
       </c>
       <c r="L49" s="1">
-        <v>12.3202</v>
+        <v>12.3292</v>
       </c>
       <c r="M49" s="1">
         <v>0</v>
@@ -16852,7 +16855,7 @@
     </row>
     <row r="50" spans="1:17">
       <c r="A50" s="2">
-        <v>2</v>
+        <v>48</v>
       </c>
       <c r="B50" s="1">
         <v>15.3877</v>
@@ -16882,10 +16885,10 @@
         <v>800623.4619</v>
       </c>
       <c r="K50" s="1">
-        <v>533604.5702</v>
+        <v>533965.1684</v>
       </c>
       <c r="L50" s="1">
-        <v>12.5549</v>
+        <v>12.5634</v>
       </c>
       <c r="M50" s="1">
         <v>0</v>
@@ -16905,7 +16908,7 @@
     </row>
     <row r="51" spans="1:17">
       <c r="A51" s="2">
-        <v>3</v>
+        <v>49</v>
       </c>
       <c r="B51" s="1">
         <v>14.6367</v>
@@ -16935,10 +16938,10 @@
         <v>775420.2572</v>
       </c>
       <c r="K51" s="1">
-        <v>597250.1828</v>
+        <v>597610.7809</v>
       </c>
       <c r="L51" s="1">
-        <v>12.8084</v>
+        <v>12.8161</v>
       </c>
       <c r="M51" s="1">
         <v>0</v>
@@ -16958,7 +16961,7 @@
     </row>
     <row r="52" spans="1:17">
       <c r="A52" s="2">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="B52" s="1">
         <v>13.0061</v>
@@ -16988,10 +16991,10 @@
         <v>703112.3784</v>
       </c>
       <c r="K52" s="1">
-        <v>653163.8257</v>
+        <v>653524.4239000001</v>
       </c>
       <c r="L52" s="1">
-        <v>12.9488</v>
+        <v>12.9559</v>
       </c>
       <c r="M52" s="1">
         <v>0.5</v>
@@ -17011,7 +17014,7 @@
     </row>
     <row r="53" spans="1:17">
       <c r="A53" s="2">
-        <v>5</v>
+        <v>51</v>
       </c>
       <c r="B53" s="1">
         <v>13.835</v>
@@ -17041,10 +17044,10 @@
         <v>781008.5739</v>
       </c>
       <c r="K53" s="1">
-        <v>711532.3919</v>
+        <v>711892.9901000001</v>
       </c>
       <c r="L53" s="1">
-        <v>12.9556</v>
+        <v>12.9621</v>
       </c>
       <c r="M53" s="1">
         <v>0</v>
@@ -17064,7 +17067,7 @@
     </row>
     <row r="54" spans="1:17">
       <c r="A54" s="2">
-        <v>6</v>
+        <v>52</v>
       </c>
       <c r="B54" s="1">
         <v>14.4216</v>
@@ -17094,10 +17097,10 @@
         <v>823968.6894</v>
       </c>
       <c r="K54" s="1">
-        <v>732555.7052</v>
+        <v>732916.3033</v>
       </c>
       <c r="L54" s="1">
-        <v>12.98</v>
+        <v>12.9863</v>
       </c>
       <c r="M54" s="1">
         <v>0</v>
@@ -17117,7 +17120,7 @@
     </row>
     <row r="55" spans="1:17">
       <c r="A55" s="2">
-        <v>7</v>
+        <v>53</v>
       </c>
       <c r="B55" s="1">
         <v>13.2404</v>
@@ -17147,10 +17150,10 @@
         <v>768364.6795</v>
       </c>
       <c r="K55" s="1">
-        <v>721154.784</v>
+        <v>721560.9054</v>
       </c>
       <c r="L55" s="1">
-        <v>12.9591</v>
+        <v>12.9664</v>
       </c>
       <c r="M55" s="1">
         <v>0.4</v>
@@ -17170,7 +17173,7 @@
     </row>
     <row r="56" spans="1:17">
       <c r="A56" s="2">
-        <v>8</v>
+        <v>54</v>
       </c>
       <c r="B56" s="1">
         <v>12.382</v>
@@ -17200,10 +17203,10 @@
         <v>747773.4706</v>
       </c>
       <c r="K56" s="1">
-        <v>764185.8245</v>
+        <v>764591.9459</v>
       </c>
       <c r="L56" s="1">
-        <v>12.9761</v>
+        <v>12.983</v>
       </c>
       <c r="M56" s="1">
         <v>0</v>
@@ -17223,7 +17226,7 @@
     </row>
     <row r="57" spans="1:17">
       <c r="A57" s="2">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="B57" s="1">
         <v>11.9583</v>
@@ -17253,10 +17256,10 @@
         <v>731730.3895</v>
       </c>
       <c r="K57" s="1">
-        <v>794219.2824</v>
+        <v>794625.4038</v>
       </c>
       <c r="L57" s="1">
-        <v>12.9536</v>
+        <v>12.9602</v>
       </c>
       <c r="M57" s="1">
         <v>0</v>
@@ -17276,7 +17279,7 @@
     </row>
     <row r="58" spans="1:17">
       <c r="A58" s="2">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="B58" s="1">
         <v>12.2036</v>
@@ -17306,10 +17309,10 @@
         <v>756904.0662</v>
       </c>
       <c r="K58" s="1">
-        <v>804219.2824</v>
+        <v>804625.4038</v>
       </c>
       <c r="L58" s="1">
-        <v>12.9405</v>
+        <v>12.9471</v>
       </c>
       <c r="M58" s="1">
         <v>0.4</v>
@@ -17329,7 +17332,7 @@
     </row>
     <row r="59" spans="1:17">
       <c r="A59" s="2">
-        <v>11</v>
+        <v>57</v>
       </c>
       <c r="B59" s="1">
         <v>12.9136</v>
@@ -17359,10 +17362,10 @@
         <v>833854.1372</v>
       </c>
       <c r="K59" s="1">
-        <v>814219.2824</v>
+        <v>814625.4038</v>
       </c>
       <c r="L59" s="1">
-        <v>12.9313</v>
+        <v>12.9377</v>
       </c>
       <c r="M59" s="1">
         <v>0</v>
@@ -17382,7 +17385,7 @@
     </row>
     <row r="60" spans="1:17">
       <c r="A60" s="2">
-        <v>12</v>
+        <v>58</v>
       </c>
       <c r="B60" s="1">
         <v>13.4338</v>
@@ -17412,10 +17415,10 @@
         <v>877708.6772</v>
       </c>
       <c r="K60" s="1">
-        <v>846592.3007</v>
+        <v>846998.4221</v>
       </c>
       <c r="L60" s="1">
-        <v>12.9316</v>
+        <v>12.9378</v>
       </c>
       <c r="M60" s="1">
         <v>0</v>
@@ -17435,7 +17438,7 @@
     </row>
     <row r="61" spans="1:17">
       <c r="A61" s="2">
-        <v>13</v>
+        <v>59</v>
       </c>
       <c r="B61" s="1">
         <v>12.9657</v>
@@ -17465,10 +17468,10 @@
         <v>856742.0925</v>
       </c>
       <c r="K61" s="1">
-        <v>856592.3007</v>
+        <v>856998.4221</v>
       </c>
       <c r="L61" s="1">
-        <v>12.9375</v>
+        <v>12.9437</v>
       </c>
       <c r="M61" s="1">
         <v>0.3</v>
@@ -17488,7 +17491,7 @@
     </row>
     <row r="62" spans="1:17">
       <c r="A62" s="2">
-        <v>14</v>
+        <v>60</v>
       </c>
       <c r="B62" s="1">
         <v>13.3568</v>
@@ -17518,10 +17521,10 @@
         <v>910720.9240999999</v>
       </c>
       <c r="K62" s="1">
-        <v>866592.3007</v>
+        <v>866998.4221</v>
       </c>
       <c r="L62" s="1">
-        <v>12.9382</v>
+        <v>12.9442</v>
       </c>
       <c r="M62" s="1">
         <v>0</v>
@@ -17546,13 +17549,13 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" customWidth="1"/>
     <col min="2" max="2" width="8.7109375" customWidth="1"/>
     <col min="3" max="3" width="12.7109375" customWidth="1"/>
     <col min="4" max="4" width="12.7109375" customWidth="1"/>
@@ -17597,16 +17600,16 @@
         <v>13.0924</v>
       </c>
       <c r="D3" s="1">
-        <v>12.4212</v>
+        <v>12.4364</v>
       </c>
       <c r="E3" s="1">
-        <v>12.5701</v>
+        <v>12.5831</v>
       </c>
       <c r="F3" s="1">
-        <v>12.718</v>
+        <v>12.7287</v>
       </c>
       <c r="G3" s="1">
-        <v>12.9382</v>
+        <v>12.9442</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="3" customFormat="1">
@@ -17716,6 +17719,26 @@
       </c>
       <c r="G8" s="1">
         <v>284875.079</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="4" customFormat="1">
+      <c r="A9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="4">
+        <v>1.038</v>
+      </c>
+      <c r="D9" s="4">
+        <v>1.4828</v>
+      </c>
+      <c r="E9" s="4">
+        <v>1.2907</v>
+      </c>
+      <c r="F9" s="4">
+        <v>1.118</v>
+      </c>
+      <c r="G9" s="4">
+        <v>1.0504</v>
       </c>
     </row>
   </sheetData>
